--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1695242.857679885</v>
+        <v>1693395.783638964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3053542.561358851</v>
+        <v>3053542.561358853</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,37 +835,37 @@
         <v>6.876045741711437</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>6.876045741711437</v>
@@ -1020,11 +1020,11 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>1.529361848718423</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>15.30273751513505</v>
@@ -1260,7 +1260,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.4987170096047</v>
+        <v>357.4987170096044</v>
       </c>
       <c r="C11" t="n">
-        <v>340.0377671171316</v>
+        <v>340.0377671171314</v>
       </c>
       <c r="D11" t="n">
-        <v>329.447916966807</v>
+        <v>295.5373342646147</v>
       </c>
       <c r="E11" t="n">
-        <v>356.6952454183859</v>
+        <v>356.6952454183856</v>
       </c>
       <c r="F11" t="n">
-        <v>381.6409210878355</v>
+        <v>381.6409210878353</v>
       </c>
       <c r="G11" t="n">
-        <v>387.4528141738014</v>
+        <v>387.4528141738012</v>
       </c>
       <c r="H11" t="n">
-        <v>287.4608704039649</v>
+        <v>287.4608704039646</v>
       </c>
       <c r="I11" t="n">
-        <v>84.43373851831625</v>
+        <v>84.43373851831603</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.90922928808835</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>186.4144436559091</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>225.9013443589637</v>
       </c>
       <c r="V11" t="n">
-        <v>302.517133816259</v>
+        <v>302.5171338162588</v>
       </c>
       <c r="W11" t="n">
-        <v>324.0058440635371</v>
+        <v>324.0058440635369</v>
       </c>
       <c r="X11" t="n">
-        <v>344.4959760245931</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.00688420982733</v>
+        <v>154.5968555280612</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0116964447519</v>
+        <v>142.0116964447517</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>123.3803483643362</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.198837992693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.1859233690551</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.5829460310488</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>126.5638234652356</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32002763876467</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>79.43956953057231</v>
       </c>
       <c r="T13" t="n">
-        <v>197.6989458965793</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>261.0199278658768</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>226.9025186699521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>261.2878736827151</v>
+        <v>261.2878736827149</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.4987170096047</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>340.0377671171316</v>
+        <v>305.8134442479638</v>
       </c>
       <c r="D14" t="n">
-        <v>329.447916966807</v>
+        <v>329.4479169668068</v>
       </c>
       <c r="E14" t="n">
-        <v>356.6952454183859</v>
+        <v>356.6952454183856</v>
       </c>
       <c r="F14" t="n">
-        <v>381.6409210878355</v>
+        <v>381.6409210878353</v>
       </c>
       <c r="G14" t="n">
-        <v>387.4528141738014</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>287.4608704039649</v>
+        <v>287.4608704039646</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.2002198419264</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>186.4144436559091</v>
       </c>
       <c r="U14" t="n">
-        <v>225.9013443589639</v>
+        <v>225.9013443589637</v>
       </c>
       <c r="V14" t="n">
-        <v>302.517133816259</v>
+        <v>302.5171338162588</v>
       </c>
       <c r="W14" t="n">
-        <v>216.4474675109774</v>
+        <v>324.0058440635369</v>
       </c>
       <c r="X14" t="n">
-        <v>344.4959760245931</v>
+        <v>344.4959760245929</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>361.0028140021774</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.0116964447517</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.3803483643362</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.1859233690551</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.5829460310488</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>126.5638234652356</v>
       </c>
       <c r="I16" t="n">
-        <v>94.94278761838405</v>
+        <v>94.94278761838385</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3408740452391</v>
+        <v>178.3408740452389</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>197.6989458965791</v>
       </c>
       <c r="U16" t="n">
-        <v>261.0199278658768</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>226.9025186699521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>261.2878736827151</v>
+        <v>145.540529173839</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4043638280811</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.3495286982188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>299.9247441715452</v>
       </c>
       <c r="C17" t="n">
-        <v>282.4637942790722</v>
+        <v>282.4637942790721</v>
       </c>
       <c r="D17" t="n">
         <v>271.8739441287476</v>
@@ -1853,16 +1853,16 @@
         <v>299.1212725803264</v>
       </c>
       <c r="F17" t="n">
-        <v>324.0669482497761</v>
+        <v>324.066948249776</v>
       </c>
       <c r="G17" t="n">
-        <v>329.878841335742</v>
+        <v>329.8788413357419</v>
       </c>
       <c r="H17" t="n">
         <v>229.8868975659054</v>
       </c>
       <c r="I17" t="n">
-        <v>26.85976568025683</v>
+        <v>26.85976568025679</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.62624700386901</v>
+        <v>66.62624700386716</v>
       </c>
       <c r="T17" t="n">
         <v>128.8404708178498</v>
@@ -1901,13 +1901,13 @@
         <v>168.3273715209045</v>
       </c>
       <c r="V17" t="n">
-        <v>244.9431609781996</v>
+        <v>244.9431609781995</v>
       </c>
       <c r="W17" t="n">
-        <v>266.4318712254777</v>
+        <v>266.4318712254776</v>
       </c>
       <c r="X17" t="n">
-        <v>286.9220031865337</v>
+        <v>286.9220031865336</v>
       </c>
       <c r="Y17" t="n">
         <v>303.4288411641182</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.02288269000195</v>
+        <v>97.02288269000191</v>
       </c>
       <c r="C19" t="n">
-        <v>84.43772360669249</v>
+        <v>84.43772360669244</v>
       </c>
       <c r="D19" t="n">
-        <v>65.80637552627701</v>
+        <v>65.80637552627697</v>
       </c>
       <c r="E19" t="n">
-        <v>63.62486515463382</v>
+        <v>63.62486515463378</v>
       </c>
       <c r="F19" t="n">
-        <v>62.6119505309959</v>
+        <v>62.61195053099586</v>
       </c>
       <c r="G19" t="n">
-        <v>84.00897319298961</v>
+        <v>84.00897319298957</v>
       </c>
       <c r="H19" t="n">
-        <v>68.98985062717644</v>
+        <v>68.98985062717639</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36881478032463</v>
+        <v>37.36881478032459</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74605480070527</v>
+        <v>41.74605480070522</v>
       </c>
       <c r="S19" t="n">
-        <v>120.7669012071797</v>
+        <v>120.7669012071796</v>
       </c>
       <c r="T19" t="n">
         <v>140.1249730585199</v>
@@ -2059,13 +2059,13 @@
         <v>203.4459550278173</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3285458318927</v>
+        <v>169.3285458318926</v>
       </c>
       <c r="W19" t="n">
-        <v>203.7139008446557</v>
+        <v>203.7139008446556</v>
       </c>
       <c r="X19" t="n">
-        <v>142.9005578971018</v>
+        <v>142.9005578971017</v>
       </c>
       <c r="Y19" t="n">
         <v>135.7755558601594</v>
@@ -2081,7 +2081,7 @@
         <v>299.9247441715452</v>
       </c>
       <c r="C20" t="n">
-        <v>282.4637942790722</v>
+        <v>282.4637942790721</v>
       </c>
       <c r="D20" t="n">
         <v>271.8739441287476</v>
@@ -2090,16 +2090,16 @@
         <v>299.1212725803264</v>
       </c>
       <c r="F20" t="n">
-        <v>324.0669482497761</v>
+        <v>324.066948249776</v>
       </c>
       <c r="G20" t="n">
-        <v>329.878841335742</v>
+        <v>329.8788413357419</v>
       </c>
       <c r="H20" t="n">
         <v>229.8868975659054</v>
       </c>
       <c r="I20" t="n">
-        <v>26.85976568025683</v>
+        <v>26.85976568025679</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.62624700386721</v>
+        <v>66.62624700386716</v>
       </c>
       <c r="T20" t="n">
         <v>128.8404708178498</v>
@@ -2138,13 +2138,13 @@
         <v>168.3273715209045</v>
       </c>
       <c r="V20" t="n">
-        <v>244.9431609781996</v>
+        <v>244.9431609781995</v>
       </c>
       <c r="W20" t="n">
-        <v>266.4318712254777</v>
+        <v>266.4318712254776</v>
       </c>
       <c r="X20" t="n">
-        <v>286.9220031865337</v>
+        <v>286.9220031865336</v>
       </c>
       <c r="Y20" t="n">
         <v>303.4288411641182</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.02288269000195</v>
+        <v>97.02288269000191</v>
       </c>
       <c r="C22" t="n">
-        <v>84.43772360669249</v>
+        <v>84.43772360669244</v>
       </c>
       <c r="D22" t="n">
-        <v>65.80637552627701</v>
+        <v>65.80637552627697</v>
       </c>
       <c r="E22" t="n">
-        <v>63.62486515463382</v>
+        <v>63.62486515463378</v>
       </c>
       <c r="F22" t="n">
-        <v>62.6119505309959</v>
+        <v>62.61195053099586</v>
       </c>
       <c r="G22" t="n">
-        <v>84.00897319298961</v>
+        <v>84.00897319298957</v>
       </c>
       <c r="H22" t="n">
-        <v>68.98985062717644</v>
+        <v>68.98985062717639</v>
       </c>
       <c r="I22" t="n">
-        <v>37.36881478032463</v>
+        <v>37.36881478032459</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.74605480070527</v>
+        <v>41.74605480070522</v>
       </c>
       <c r="S22" t="n">
-        <v>120.7669012071797</v>
+        <v>120.7669012071796</v>
       </c>
       <c r="T22" t="n">
         <v>140.1249730585199</v>
@@ -2296,13 +2296,13 @@
         <v>203.4459550278173</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3285458318927</v>
+        <v>169.3285458318926</v>
       </c>
       <c r="W22" t="n">
-        <v>203.7139008446557</v>
+        <v>203.7139008446556</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9005578971018</v>
+        <v>142.9005578971017</v>
       </c>
       <c r="Y22" t="n">
         <v>135.7755558601594</v>
@@ -2318,7 +2318,7 @@
         <v>299.9247441715452</v>
       </c>
       <c r="C23" t="n">
-        <v>282.4637942790722</v>
+        <v>282.4637942790721</v>
       </c>
       <c r="D23" t="n">
         <v>271.8739441287476</v>
@@ -2330,13 +2330,13 @@
         <v>324.066948249776</v>
       </c>
       <c r="G23" t="n">
-        <v>329.878841335742</v>
+        <v>329.8788413357419</v>
       </c>
       <c r="H23" t="n">
         <v>229.8868975659054</v>
       </c>
       <c r="I23" t="n">
-        <v>26.8597656802568</v>
+        <v>26.85976568025679</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.62624700386718</v>
+        <v>66.62624700386716</v>
       </c>
       <c r="T23" t="n">
         <v>128.8404708178498</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.02288269000192</v>
+        <v>97.02288269000191</v>
       </c>
       <c r="C25" t="n">
-        <v>84.43772360669246</v>
+        <v>84.43772360669244</v>
       </c>
       <c r="D25" t="n">
-        <v>65.80637552627698</v>
+        <v>65.80637552627697</v>
       </c>
       <c r="E25" t="n">
-        <v>63.6248651546338</v>
+        <v>63.62486515463378</v>
       </c>
       <c r="F25" t="n">
-        <v>62.61195053099587</v>
+        <v>62.61195053099586</v>
       </c>
       <c r="G25" t="n">
-        <v>84.00897319298957</v>
+        <v>84.00897319298956</v>
       </c>
       <c r="H25" t="n">
-        <v>68.98985062717639</v>
+        <v>68.98985062717638</v>
       </c>
       <c r="I25" t="n">
-        <v>37.36881478032461</v>
+        <v>37.3688147803246</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74605480070524</v>
+        <v>41.74605480070522</v>
       </c>
       <c r="S25" t="n">
         <v>120.7669012071796</v>
@@ -2539,7 +2539,7 @@
         <v>203.7139008446556</v>
       </c>
       <c r="X25" t="n">
-        <v>142.9005578971018</v>
+        <v>142.9005578971017</v>
       </c>
       <c r="Y25" t="n">
         <v>135.7755558601594</v>
@@ -2570,10 +2570,10 @@
         <v>351.9193723431343</v>
       </c>
       <c r="H26" t="n">
-        <v>251.9274285732977</v>
+        <v>251.9274285732978</v>
       </c>
       <c r="I26" t="n">
-        <v>48.90029668764912</v>
+        <v>48.90029668764913</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.66677801125951</v>
+        <v>88.66677801125948</v>
       </c>
       <c r="T26" t="n">
         <v>150.8810018252422</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.0634136973943</v>
+        <v>119.0634136973942</v>
       </c>
       <c r="C28" t="n">
         <v>106.4782546140848</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>84.65248153838819</v>
       </c>
       <c r="G28" t="n">
-        <v>106.0495042003819</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>89.73463803800028</v>
+        <v>91.03038163456871</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>59.40934578771692</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>43.37098709834676</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.807432214572</v>
       </c>
       <c r="T28" t="n">
         <v>162.1655040659122</v>
       </c>
       <c r="U28" t="n">
-        <v>225.4864860352096</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>191.369076839285</v>
@@ -2801,16 +2801,16 @@
         <v>321.1618035877187</v>
       </c>
       <c r="F29" t="n">
-        <v>346.1074792571683</v>
+        <v>346.1074792571684</v>
       </c>
       <c r="G29" t="n">
-        <v>351.9193723431342</v>
+        <v>351.9193723431343</v>
       </c>
       <c r="H29" t="n">
         <v>251.9274285732977</v>
       </c>
       <c r="I29" t="n">
-        <v>48.90029668764907</v>
+        <v>48.90029668764912</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.66677801125945</v>
+        <v>88.66677801125951</v>
       </c>
       <c r="T29" t="n">
-        <v>150.8810018252421</v>
+        <v>150.8810018252422</v>
       </c>
       <c r="U29" t="n">
         <v>190.3679025282968</v>
       </c>
       <c r="V29" t="n">
-        <v>266.9836919855918</v>
+        <v>266.9836919855919</v>
       </c>
       <c r="W29" t="n">
-        <v>288.4724022328699</v>
+        <v>288.47240223287</v>
       </c>
       <c r="X29" t="n">
-        <v>308.9625341939259</v>
+        <v>308.962534193926</v>
       </c>
       <c r="Y29" t="n">
         <v>325.4693721715105</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.0634136973942</v>
+        <v>119.0634136973943</v>
       </c>
       <c r="C31" t="n">
-        <v>106.4782546140847</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>87.84690653366926</v>
+        <v>87.84690653366931</v>
       </c>
       <c r="E31" t="n">
-        <v>85.66539616202607</v>
+        <v>85.66539616202613</v>
       </c>
       <c r="F31" t="n">
-        <v>84.65248153838814</v>
+        <v>84.6524815383882</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>106.0495042003819</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>91.03038163456873</v>
       </c>
       <c r="I31" t="n">
-        <v>51.00693091509432</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.78658580809751</v>
+        <v>63.78658580809756</v>
       </c>
       <c r="S31" t="n">
-        <v>142.8074322145719</v>
+        <v>142.807432214572</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.1655040659122</v>
       </c>
       <c r="U31" t="n">
-        <v>225.4864860352096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>191.3690768392849</v>
+        <v>191.369076839285</v>
       </c>
       <c r="W31" t="n">
-        <v>225.7544318520479</v>
+        <v>225.754431852048</v>
       </c>
       <c r="X31" t="n">
-        <v>164.9410889044941</v>
+        <v>30.851283700467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>157.8160868675517</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>319.7851214833174</v>
       </c>
       <c r="C32" t="n">
-        <v>302.3241715908444</v>
+        <v>302.3241715908443</v>
       </c>
       <c r="D32" t="n">
         <v>291.7343214405198</v>
@@ -3038,16 +3038,16 @@
         <v>318.9816498920986</v>
       </c>
       <c r="F32" t="n">
-        <v>343.9273255615483</v>
+        <v>343.9273255615482</v>
       </c>
       <c r="G32" t="n">
-        <v>349.7392186475142</v>
+        <v>349.7392186475141</v>
       </c>
       <c r="H32" t="n">
-        <v>249.7472748776777</v>
+        <v>249.7472748776776</v>
       </c>
       <c r="I32" t="n">
-        <v>46.72014299202901</v>
+        <v>46.72014299202899</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>188.1877488326767</v>
       </c>
       <c r="V32" t="n">
-        <v>264.8035382899718</v>
+        <v>264.8035382899717</v>
       </c>
       <c r="W32" t="n">
-        <v>286.2922485372499</v>
+        <v>286.2922485372498</v>
       </c>
       <c r="X32" t="n">
-        <v>306.7823804983059</v>
+        <v>306.7823804983058</v>
       </c>
       <c r="Y32" t="n">
         <v>323.2892184758904</v>
@@ -3190,22 +3190,22 @@
         <v>104.2981009184647</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>85.66675283804918</v>
       </c>
       <c r="E34" t="n">
-        <v>83.48524246640601</v>
+        <v>83.48524246640599</v>
       </c>
       <c r="F34" t="n">
-        <v>82.47232784276808</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>103.8693505047618</v>
       </c>
       <c r="H34" t="n">
-        <v>88.85022793894862</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>57.22919209209682</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>61.60643211247745</v>
+        <v>61.60643211247744</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>140.6272785189518</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.3561471691964</v>
       </c>
       <c r="U34" t="n">
-        <v>223.3063323395895</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>189.1889231436649</v>
+        <v>189.1889231436648</v>
       </c>
       <c r="W34" t="n">
-        <v>223.5742781564279</v>
+        <v>223.5742781564278</v>
       </c>
       <c r="X34" t="n">
-        <v>75.55303352166834</v>
+        <v>162.760935208874</v>
       </c>
       <c r="Y34" t="n">
         <v>155.6359331719316</v>
@@ -3740,7 +3740,7 @@
         <v>299.9247441715452</v>
       </c>
       <c r="C41" t="n">
-        <v>282.4637942790721</v>
+        <v>282.4637942790722</v>
       </c>
       <c r="D41" t="n">
         <v>271.8739441287476</v>
@@ -3749,16 +3749,16 @@
         <v>299.1212725803264</v>
       </c>
       <c r="F41" t="n">
-        <v>324.066948249776</v>
+        <v>324.0669482497761</v>
       </c>
       <c r="G41" t="n">
-        <v>329.8788413357419</v>
+        <v>329.878841335742</v>
       </c>
       <c r="H41" t="n">
         <v>229.8868975659054</v>
       </c>
       <c r="I41" t="n">
-        <v>26.85976568025679</v>
+        <v>26.85976568025681</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.62624700386716</v>
+        <v>66.62624700386721</v>
       </c>
       <c r="T41" t="n">
         <v>128.8404708178498</v>
@@ -3797,13 +3797,13 @@
         <v>168.3273715209045</v>
       </c>
       <c r="V41" t="n">
-        <v>244.9431609781995</v>
+        <v>244.9431609781996</v>
       </c>
       <c r="W41" t="n">
-        <v>266.4318712254776</v>
+        <v>266.4318712254777</v>
       </c>
       <c r="X41" t="n">
-        <v>286.9220031865336</v>
+        <v>286.9220031865337</v>
       </c>
       <c r="Y41" t="n">
         <v>303.4288411641182</v>
@@ -3837,7 +3837,7 @@
         <v>98.72365702839978</v>
       </c>
       <c r="I42" t="n">
-        <v>41.22790915315946</v>
+        <v>41.22790915315945</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.29459177397986</v>
+        <v>13.29459177397985</v>
       </c>
       <c r="S42" t="n">
         <v>145.6966048793649</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.02288269000191</v>
+        <v>97.02288269000195</v>
       </c>
       <c r="C43" t="n">
-        <v>84.43772360669244</v>
+        <v>84.43772360669249</v>
       </c>
       <c r="D43" t="n">
-        <v>65.80637552627697</v>
+        <v>65.80637552627701</v>
       </c>
       <c r="E43" t="n">
-        <v>63.62486515463378</v>
+        <v>63.62486515463382</v>
       </c>
       <c r="F43" t="n">
-        <v>62.61195053099586</v>
+        <v>62.6119505309959</v>
       </c>
       <c r="G43" t="n">
-        <v>84.00897319298957</v>
+        <v>84.0089731929896</v>
       </c>
       <c r="H43" t="n">
-        <v>68.98985062717639</v>
+        <v>68.98985062717642</v>
       </c>
       <c r="I43" t="n">
-        <v>37.36881478032459</v>
+        <v>37.36881478032463</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74605480070522</v>
+        <v>41.74605480070526</v>
       </c>
       <c r="S43" t="n">
-        <v>120.7669012071796</v>
+        <v>120.7669012071797</v>
       </c>
       <c r="T43" t="n">
         <v>140.1249730585199</v>
@@ -3955,13 +3955,13 @@
         <v>203.4459550278173</v>
       </c>
       <c r="V43" t="n">
-        <v>169.3285458318926</v>
+        <v>169.3285458318927</v>
       </c>
       <c r="W43" t="n">
-        <v>203.7139008446556</v>
+        <v>203.7139008446557</v>
       </c>
       <c r="X43" t="n">
-        <v>142.9005578971017</v>
+        <v>142.9005578971018</v>
       </c>
       <c r="Y43" t="n">
         <v>135.7755558601594</v>
@@ -3992,7 +3992,7 @@
         <v>329.878841335742</v>
       </c>
       <c r="H44" t="n">
-        <v>229.8868975659054</v>
+        <v>229.8868975659055</v>
       </c>
       <c r="I44" t="n">
         <v>26.85976568025683</v>
@@ -4074,7 +4074,7 @@
         <v>98.72365702839978</v>
       </c>
       <c r="I45" t="n">
-        <v>41.22790915315945</v>
+        <v>41.22790915315946</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>13.29459177397985</v>
+        <v>13.29459177397986</v>
       </c>
       <c r="S45" t="n">
         <v>145.6966048793649</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.02288269000196</v>
+        <v>97.02288269000195</v>
       </c>
       <c r="C46" t="n">
-        <v>84.4377236066925</v>
+        <v>84.43772360669249</v>
       </c>
       <c r="D46" t="n">
-        <v>65.80637552627702</v>
+        <v>65.80637552627701</v>
       </c>
       <c r="E46" t="n">
-        <v>63.62486515463384</v>
+        <v>63.62486515463382</v>
       </c>
       <c r="F46" t="n">
-        <v>62.61195053099591</v>
+        <v>62.6119505309959</v>
       </c>
       <c r="G46" t="n">
-        <v>84.00897319298961</v>
+        <v>84.0089731929896</v>
       </c>
       <c r="H46" t="n">
-        <v>68.98985062717645</v>
+        <v>68.98985062717644</v>
       </c>
       <c r="I46" t="n">
-        <v>37.36881478032464</v>
+        <v>37.36881478032463</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I2" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J2" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L2" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L2" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="M2" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N2" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="F3" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G3" t="n">
         <v>8.2497170613261</v>
       </c>
       <c r="H3" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I3" t="n">
         <v>1.304216312122629</v>
@@ -4410,19 +4410,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
         <v>7.082327113962777</v>
       </c>
       <c r="M3" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N3" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N3" t="n">
-        <v>20.69689768255142</v>
-      </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T3" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E4" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F4" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
         <v>0.5500836593369149</v>
@@ -4498,40 +4498,40 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>20.69689768255142</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4586,31 +4586,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R5" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="E6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="F6" t="n">
         <v>15.19521781052957</v>
@@ -4647,28 +4647,28 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L6" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N6" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>20.97193951221988</v>
       </c>
-      <c r="N6" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O6" t="n">
-        <v>27.50418296684575</v>
-      </c>
       <c r="P6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
         <v>20.55868221764227</v>
@@ -4689,7 +4689,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
     </row>
     <row r="7">
@@ -4705,22 +4705,22 @@
         <v>7.495584408540386</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,13 +4729,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
@@ -4744,31 +4744,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
-        <v>24.75525293138463</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S7" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="T7" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U7" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V7" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W7" t="n">
-        <v>17.80975218218115</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X7" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F8" t="n">
-        <v>45.75363943919166</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>30.29632881784312</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
-        <v>28.75151886964269</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I8" t="n">
         <v>13.29420824829416</v>
@@ -4811,43 +4811,43 @@
         <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D9" t="n">
         <v>32.89297289669359</v>
@@ -4869,10 +4869,10 @@
         <v>32.89297289669359</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="H9" t="n">
         <v>17.43566227534506</v>
@@ -4887,13 +4887,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
         <v>30.9115297805728</v>
@@ -4908,25 +4908,25 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="E10" t="n">
-        <v>1.224219001210804</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="F10" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="G10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H10" t="n">
         <v>1.224219001210804</v>
@@ -4972,40 +4972,40 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>27.54739878238201</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S10" t="n">
-        <v>12.09008816103347</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2261.820049155106</v>
+        <v>2227.566935314507</v>
       </c>
       <c r="C11" t="n">
-        <v>1918.3475571176</v>
+        <v>1884.094443277</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.571883413754</v>
+        <v>1585.571883413753</v>
       </c>
       <c r="E11" t="n">
-        <v>1225.273655718415</v>
+        <v>1225.273655718414</v>
       </c>
       <c r="F11" t="n">
-        <v>839.7777758317122</v>
+        <v>839.7777758317116</v>
       </c>
       <c r="G11" t="n">
-        <v>448.4112968682765</v>
+        <v>448.4112968682762</v>
       </c>
       <c r="H11" t="n">
-        <v>158.0467813087162</v>
+        <v>158.0467813087159</v>
       </c>
       <c r="I11" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J11" t="n">
-        <v>113.2332236619594</v>
+        <v>280.6388726823124</v>
       </c>
       <c r="K11" t="n">
-        <v>545.5343061271845</v>
+        <v>712.9399551475376</v>
       </c>
       <c r="L11" t="n">
-        <v>1134.118653144117</v>
+        <v>967.5768626585258</v>
       </c>
       <c r="M11" t="n">
-        <v>1805.638692735791</v>
+        <v>1639.096902250199</v>
       </c>
       <c r="N11" t="n">
-        <v>2473.392631074832</v>
+        <v>2306.85084058924</v>
       </c>
       <c r="O11" t="n">
-        <v>3058.746101945358</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P11" t="n">
-        <v>3520.65736379464</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q11" t="n">
-        <v>3623.76993442925</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R11" t="n">
-        <v>3638.008837238017</v>
+        <v>3638.008837238015</v>
       </c>
       <c r="S11" t="n">
-        <v>3603.757090482373</v>
+        <v>3638.008837238015</v>
       </c>
       <c r="T11" t="n">
-        <v>3603.757090482373</v>
+        <v>3449.711419403764</v>
       </c>
       <c r="U11" t="n">
-        <v>3603.757090482373</v>
+        <v>3221.528243283598</v>
       </c>
       <c r="V11" t="n">
-        <v>3298.184228041707</v>
+        <v>2915.955380842932</v>
       </c>
       <c r="W11" t="n">
-        <v>2970.905597674498</v>
+        <v>2588.676750475724</v>
       </c>
       <c r="X11" t="n">
-        <v>2622.929864316323</v>
+        <v>2588.676750475724</v>
       </c>
       <c r="Y11" t="n">
-        <v>2622.929864316323</v>
+        <v>2588.676750475724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>114.4045294247194</v>
       </c>
       <c r="I12" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J12" t="n">
         <v>202.8779242505272</v>
@@ -5124,10 +5124,10 @@
         <v>551.8907227025927</v>
       </c>
       <c r="L12" t="n">
-        <v>715.4539555122782</v>
+        <v>926.9953748515616</v>
       </c>
       <c r="M12" t="n">
-        <v>925.6814015941609</v>
+        <v>1137.222820933444</v>
       </c>
       <c r="N12" t="n">
         <v>1367.423006877572</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.2063347697623</v>
+        <v>855.5112632772052</v>
       </c>
       <c r="C13" t="n">
-        <v>72.76017674476034</v>
+        <v>712.0651052522035</v>
       </c>
       <c r="D13" t="n">
-        <v>72.76017674476034</v>
+        <v>587.438490742773</v>
       </c>
       <c r="E13" t="n">
-        <v>72.76017674476034</v>
+        <v>465.0154220632851</v>
       </c>
       <c r="F13" t="n">
-        <v>72.76017674476034</v>
+        <v>343.6154994682799</v>
       </c>
       <c r="G13" t="n">
-        <v>72.76017674476034</v>
+        <v>200.6024226692408</v>
       </c>
       <c r="H13" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="I13" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J13" t="n">
-        <v>87.41275862324278</v>
+        <v>87.41275862324289</v>
       </c>
       <c r="K13" t="n">
-        <v>225.2566907528135</v>
+        <v>225.256690752814</v>
       </c>
       <c r="L13" t="n">
-        <v>450.1893251906097</v>
+        <v>450.1893251906103</v>
       </c>
       <c r="M13" t="n">
-        <v>696.3803151098589</v>
+        <v>696.3803151098598</v>
       </c>
       <c r="N13" t="n">
-        <v>942.7460844869827</v>
+        <v>942.7460844869834</v>
       </c>
       <c r="O13" t="n">
-        <v>1156.195591034151</v>
+        <v>1156.195591034152</v>
       </c>
       <c r="P13" t="n">
-        <v>1318.923531047976</v>
+        <v>1318.923531047977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1355.838837763414</v>
+        <v>1355.838837763416</v>
       </c>
       <c r="R13" t="n">
-        <v>1255.515577522237</v>
+        <v>1355.838837763416</v>
       </c>
       <c r="S13" t="n">
-        <v>1255.515577522237</v>
+        <v>1275.596848338595</v>
       </c>
       <c r="T13" t="n">
-        <v>1055.819672576198</v>
+        <v>1275.596848338595</v>
       </c>
       <c r="U13" t="n">
-        <v>792.1631797823828</v>
+        <v>1275.596848338595</v>
       </c>
       <c r="V13" t="n">
-        <v>562.9687164794009</v>
+        <v>1275.596848338595</v>
       </c>
       <c r="W13" t="n">
-        <v>299.0415713453455</v>
+        <v>1011.66970320454</v>
       </c>
       <c r="X13" t="n">
-        <v>299.0415713453455</v>
+        <v>1011.66970320454</v>
       </c>
       <c r="Y13" t="n">
-        <v>299.0415713453455</v>
+        <v>1011.66970320454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2176.533444591151</v>
+        <v>1750.596942527545</v>
       </c>
       <c r="C14" t="n">
-        <v>1833.060952553644</v>
+        <v>1441.694473590208</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.285278849798</v>
+        <v>1108.918799886362</v>
       </c>
       <c r="E14" t="n">
-        <v>1139.987051154459</v>
+        <v>748.6205721910233</v>
       </c>
       <c r="F14" t="n">
-        <v>754.4911712677565</v>
+        <v>363.1246923043205</v>
       </c>
       <c r="G14" t="n">
-        <v>363.1246923043208</v>
+        <v>363.1246923043205</v>
       </c>
       <c r="H14" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="I14" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J14" t="n">
         <v>280.6388726823124</v>
       </c>
       <c r="K14" t="n">
-        <v>393.2314184503631</v>
+        <v>712.9399551475376</v>
       </c>
       <c r="L14" t="n">
-        <v>981.8157654672958</v>
+        <v>1301.52430216447</v>
       </c>
       <c r="M14" t="n">
-        <v>1653.33580505897</v>
+        <v>1973.044341756144</v>
       </c>
       <c r="N14" t="n">
-        <v>2321.08974339801</v>
+        <v>2640.798280095185</v>
       </c>
       <c r="O14" t="n">
-        <v>2906.443214268536</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P14" t="n">
-        <v>3368.354476117819</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q14" t="n">
-        <v>3638.008837238017</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R14" t="n">
-        <v>3638.008837238017</v>
+        <v>3638.008837238015</v>
       </c>
       <c r="S14" t="n">
-        <v>3638.008837238017</v>
+        <v>3512.554069720918</v>
       </c>
       <c r="T14" t="n">
-        <v>3638.008837238017</v>
+        <v>3324.256651886666</v>
       </c>
       <c r="U14" t="n">
-        <v>3409.825661117852</v>
+        <v>3096.0734757665</v>
       </c>
       <c r="V14" t="n">
-        <v>3104.252798677187</v>
+        <v>2790.500613325835</v>
       </c>
       <c r="W14" t="n">
-        <v>2885.618993110543</v>
+        <v>2463.221982958626</v>
       </c>
       <c r="X14" t="n">
-        <v>2537.643259752368</v>
+        <v>2115.246249600451</v>
       </c>
       <c r="Y14" t="n">
-        <v>2537.643259752368</v>
+        <v>1750.596942527545</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>114.4045294247194</v>
       </c>
       <c r="I15" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J15" t="n">
-        <v>202.8779242505272</v>
+        <v>78.04779926352245</v>
       </c>
       <c r="K15" t="n">
-        <v>551.8907227025927</v>
+        <v>427.0605977155879</v>
       </c>
       <c r="L15" t="n">
-        <v>715.4539555122782</v>
+        <v>957.7557723756979</v>
       </c>
       <c r="M15" t="n">
-        <v>925.6814015941609</v>
+        <v>1167.983218457581</v>
       </c>
       <c r="N15" t="n">
-        <v>1367.423006877572</v>
+        <v>1682.70114783111</v>
       </c>
       <c r="O15" t="n">
-        <v>1945.715104644933</v>
+        <v>2260.993245598471</v>
       </c>
       <c r="P15" t="n">
         <v>2392.842428557763</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2450.831981894499</v>
+        <v>828.9900002728526</v>
       </c>
       <c r="C16" t="n">
-        <v>2450.831981894499</v>
+        <v>685.5438422478509</v>
       </c>
       <c r="D16" t="n">
-        <v>2450.831981894499</v>
+        <v>560.9172277384204</v>
       </c>
       <c r="E16" t="n">
-        <v>2450.831981894499</v>
+        <v>560.9172277384204</v>
       </c>
       <c r="F16" t="n">
-        <v>2450.831981894499</v>
+        <v>439.5173051434152</v>
       </c>
       <c r="G16" t="n">
-        <v>2450.831981894499</v>
+        <v>296.504228344376</v>
       </c>
       <c r="H16" t="n">
-        <v>2450.831981894499</v>
+        <v>168.6619824198955</v>
       </c>
       <c r="I16" t="n">
-        <v>2354.930176219364</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J16" t="n">
-        <v>2369.582758097846</v>
+        <v>87.41275862324289</v>
       </c>
       <c r="K16" t="n">
-        <v>2507.426690227417</v>
+        <v>225.2566907528139</v>
       </c>
       <c r="L16" t="n">
-        <v>2732.359324665213</v>
+        <v>450.1893251906102</v>
       </c>
       <c r="M16" t="n">
-        <v>2978.550314584462</v>
+        <v>696.3803151098597</v>
       </c>
       <c r="N16" t="n">
-        <v>3224.916083961586</v>
+        <v>942.7460844869835</v>
       </c>
       <c r="O16" t="n">
-        <v>3438.365590508754</v>
+        <v>1156.195591034152</v>
       </c>
       <c r="P16" t="n">
-        <v>3601.093530522579</v>
+        <v>1318.923531047977</v>
       </c>
       <c r="Q16" t="n">
-        <v>3638.008837238017</v>
+        <v>1355.838837763415</v>
       </c>
       <c r="R16" t="n">
-        <v>3638.008837238017</v>
+        <v>1355.838837763415</v>
       </c>
       <c r="S16" t="n">
-        <v>3457.866540222624</v>
+        <v>1175.696540748022</v>
       </c>
       <c r="T16" t="n">
-        <v>3457.866540222624</v>
+        <v>976.0006358019829</v>
       </c>
       <c r="U16" t="n">
-        <v>3194.21004742881</v>
+        <v>976.0006358019829</v>
       </c>
       <c r="V16" t="n">
-        <v>2965.015584125827</v>
+        <v>976.0006358019829</v>
       </c>
       <c r="W16" t="n">
-        <v>2701.088438991772</v>
+        <v>828.9900002728526</v>
       </c>
       <c r="X16" t="n">
-        <v>2646.134536135124</v>
+        <v>828.9900002728526</v>
       </c>
       <c r="Y16" t="n">
-        <v>2450.831981894499</v>
+        <v>828.9900002728526</v>
       </c>
     </row>
     <row r="17">
@@ -5492,64 +5492,64 @@
         <v>1854.731352320342</v>
       </c>
       <c r="C17" t="n">
-        <v>1569.414388402088</v>
+        <v>1569.414388402087</v>
       </c>
       <c r="D17" t="n">
         <v>1294.794242817494</v>
       </c>
       <c r="E17" t="n">
-        <v>992.6515432414068</v>
+        <v>992.6515432414067</v>
       </c>
       <c r="F17" t="n">
         <v>665.3111914739561</v>
       </c>
       <c r="G17" t="n">
-        <v>332.1002406297727</v>
+        <v>332.1002406297725</v>
       </c>
       <c r="H17" t="n">
-        <v>99.89125318946421</v>
+        <v>99.89125318946412</v>
       </c>
       <c r="I17" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J17" t="n">
         <v>280.6388726823124</v>
       </c>
       <c r="K17" t="n">
-        <v>393.2314184503631</v>
+        <v>712.9399551475376</v>
       </c>
       <c r="L17" t="n">
-        <v>981.8157654672958</v>
+        <v>1301.52430216447</v>
       </c>
       <c r="M17" t="n">
-        <v>1653.33580505897</v>
+        <v>1973.044341756144</v>
       </c>
       <c r="N17" t="n">
-        <v>2321.08974339801</v>
+        <v>2306.85084058924</v>
       </c>
       <c r="O17" t="n">
-        <v>2906.443214268536</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P17" t="n">
-        <v>3368.354476117819</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q17" t="n">
-        <v>3638.008837238017</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R17" t="n">
-        <v>3638.008837238017</v>
+        <v>3638.008837238015</v>
       </c>
       <c r="S17" t="n">
-        <v>3570.70959784017</v>
+        <v>3570.709597840169</v>
       </c>
       <c r="T17" t="n">
-        <v>3440.56770812517</v>
+        <v>3440.567708125169</v>
       </c>
       <c r="U17" t="n">
-        <v>3270.540060124256</v>
+        <v>3270.540060124255</v>
       </c>
       <c r="V17" t="n">
-        <v>3023.122725802843</v>
+        <v>3023.122725802842</v>
       </c>
       <c r="W17" t="n">
         <v>2753.999623554885</v>
@@ -5589,7 +5589,7 @@
         <v>114.4045294247194</v>
       </c>
       <c r="I18" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J18" t="n">
         <v>202.8779242505272</v>
@@ -5601,13 +5601,13 @@
         <v>1082.585897362703</v>
       </c>
       <c r="M18" t="n">
-        <v>1753.861356557085</v>
+        <v>1292.813343444585</v>
       </c>
       <c r="N18" t="n">
-        <v>1984.061542501214</v>
+        <v>1757.346702961535</v>
       </c>
       <c r="O18" t="n">
-        <v>2260.993245598471</v>
+        <v>1945.715104644933</v>
       </c>
       <c r="P18" t="n">
         <v>2392.842428557763</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.3243721175784</v>
+        <v>544.3243721175782</v>
       </c>
       <c r="C19" t="n">
-        <v>459.0337422118284</v>
+        <v>459.0337422118282</v>
       </c>
       <c r="D19" t="n">
-        <v>392.5626558216496</v>
+        <v>392.5626558216494</v>
       </c>
       <c r="E19" t="n">
-        <v>328.2951152614135</v>
+        <v>328.2951152614132</v>
       </c>
       <c r="F19" t="n">
-        <v>265.05072078566</v>
+        <v>265.0507207856598</v>
       </c>
       <c r="G19" t="n">
-        <v>180.1931721058725</v>
+        <v>180.1931721058724</v>
       </c>
       <c r="H19" t="n">
-        <v>110.5064543006438</v>
+        <v>110.5064543006437</v>
       </c>
       <c r="I19" t="n">
-        <v>72.76017674476034</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J19" t="n">
         <v>144.4109917329216</v>
       </c>
       <c r="K19" t="n">
-        <v>339.2531569721713</v>
+        <v>339.2531569721706</v>
       </c>
       <c r="L19" t="n">
-        <v>621.1840245196462</v>
+        <v>621.1840245196456</v>
       </c>
       <c r="M19" t="n">
-        <v>924.3732475485742</v>
+        <v>924.3732475485737</v>
       </c>
       <c r="N19" t="n">
-        <v>1227.737250035377</v>
+        <v>1227.737250035376</v>
       </c>
       <c r="O19" t="n">
         <v>1498.184989692224</v>
@@ -5692,7 +5692,7 @@
         <v>1717.911162815727</v>
       </c>
       <c r="Q19" t="n">
-        <v>1811.824702640845</v>
+        <v>1811.824702640844</v>
       </c>
       <c r="R19" t="n">
         <v>1769.65697051892</v>
@@ -5710,13 +5710,13 @@
         <v>1129.589924937698</v>
       </c>
       <c r="W19" t="n">
-        <v>923.8183079228947</v>
+        <v>923.8183079228945</v>
       </c>
       <c r="X19" t="n">
-        <v>779.4743100470344</v>
+        <v>779.4743100470341</v>
       </c>
       <c r="Y19" t="n">
-        <v>642.3272839256612</v>
+        <v>642.3272839256609</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1854.731352320343</v>
+        <v>1854.731352320342</v>
       </c>
       <c r="C20" t="n">
         <v>1569.414388402088</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.794242817495</v>
+        <v>1294.794242817494</v>
       </c>
       <c r="E20" t="n">
-        <v>992.6515432414075</v>
+        <v>992.6515432414069</v>
       </c>
       <c r="F20" t="n">
-        <v>665.3111914739568</v>
+        <v>665.3111914739563</v>
       </c>
       <c r="G20" t="n">
-        <v>332.100240629773</v>
+        <v>332.1002406297727</v>
       </c>
       <c r="H20" t="n">
-        <v>99.89125318946418</v>
+        <v>99.89125318946412</v>
       </c>
       <c r="I20" t="n">
-        <v>72.76017674476032</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J20" t="n">
         <v>280.6388726823124</v>
@@ -5762,19 +5762,19 @@
         <v>1973.044341756144</v>
       </c>
       <c r="N20" t="n">
-        <v>2306.850840589241</v>
+        <v>2306.85084058924</v>
       </c>
       <c r="O20" t="n">
-        <v>2892.204311459767</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P20" t="n">
-        <v>3354.11557330905</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q20" t="n">
-        <v>3623.769934429248</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R20" t="n">
-        <v>3638.008837238016</v>
+        <v>3638.008837238015</v>
       </c>
       <c r="S20" t="n">
         <v>3570.709597840169</v>
@@ -5783,19 +5783,19 @@
         <v>3440.56770812517</v>
       </c>
       <c r="U20" t="n">
-        <v>3270.540060124257</v>
+        <v>3270.540060124256</v>
       </c>
       <c r="V20" t="n">
         <v>3023.122725802843</v>
       </c>
       <c r="W20" t="n">
-        <v>2753.999623554886</v>
+        <v>2753.999623554885</v>
       </c>
       <c r="X20" t="n">
-        <v>2464.179418315963</v>
+        <v>2464.179418315962</v>
       </c>
       <c r="Y20" t="n">
-        <v>2157.685639362308</v>
+        <v>2157.685639362307</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>114.4045294247194</v>
       </c>
       <c r="I21" t="n">
-        <v>72.76017674476032</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J21" t="n">
         <v>202.8779242505272</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.3243721175784</v>
+        <v>544.3243721175782</v>
       </c>
       <c r="C22" t="n">
-        <v>459.0337422118284</v>
+        <v>459.0337422118282</v>
       </c>
       <c r="D22" t="n">
-        <v>392.5626558216496</v>
+        <v>392.5626558216494</v>
       </c>
       <c r="E22" t="n">
-        <v>328.2951152614135</v>
+        <v>328.2951152614132</v>
       </c>
       <c r="F22" t="n">
-        <v>265.05072078566</v>
+        <v>265.0507207856598</v>
       </c>
       <c r="G22" t="n">
-        <v>180.1931721058725</v>
+        <v>180.1931721058724</v>
       </c>
       <c r="H22" t="n">
-        <v>110.5064543006438</v>
+        <v>110.5064543006437</v>
       </c>
       <c r="I22" t="n">
-        <v>72.76017674476032</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J22" t="n">
-        <v>144.4109917329215</v>
+        <v>144.4109917329216</v>
       </c>
       <c r="K22" t="n">
-        <v>339.2531569721712</v>
+        <v>339.2531569721713</v>
       </c>
       <c r="L22" t="n">
-        <v>621.1840245196461</v>
+        <v>621.1840245196463</v>
       </c>
       <c r="M22" t="n">
-        <v>924.3732475485742</v>
+        <v>924.3732475485745</v>
       </c>
       <c r="N22" t="n">
-        <v>1227.737250035377</v>
+        <v>1227.737250035376</v>
       </c>
       <c r="O22" t="n">
         <v>1498.184989692224</v>
@@ -5929,7 +5929,7 @@
         <v>1717.911162815727</v>
       </c>
       <c r="Q22" t="n">
-        <v>1811.824702640845</v>
+        <v>1811.824702640844</v>
       </c>
       <c r="R22" t="n">
         <v>1769.65697051892</v>
@@ -5947,13 +5947,13 @@
         <v>1129.589924937698</v>
       </c>
       <c r="W22" t="n">
-        <v>923.8183079228947</v>
+        <v>923.8183079228945</v>
       </c>
       <c r="X22" t="n">
-        <v>779.4743100470344</v>
+        <v>779.4743100470341</v>
       </c>
       <c r="Y22" t="n">
-        <v>642.3272839256612</v>
+        <v>642.3272839256609</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1854.731352320342</v>
+        <v>1854.731352320343</v>
       </c>
       <c r="C23" t="n">
         <v>1569.414388402088</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.794242817494</v>
+        <v>1294.794242817495</v>
       </c>
       <c r="E23" t="n">
-        <v>992.6515432414071</v>
+        <v>992.6515432414074</v>
       </c>
       <c r="F23" t="n">
         <v>665.3111914739568</v>
@@ -5981,34 +5981,34 @@
         <v>332.100240629773</v>
       </c>
       <c r="H23" t="n">
-        <v>99.89125318946414</v>
+        <v>99.89125318946412</v>
       </c>
       <c r="I23" t="n">
         <v>72.7601767447603</v>
       </c>
       <c r="J23" t="n">
-        <v>113.2332236619593</v>
+        <v>280.6388726823124</v>
       </c>
       <c r="K23" t="n">
-        <v>545.5343061271845</v>
+        <v>712.9399551475376</v>
       </c>
       <c r="L23" t="n">
-        <v>1134.118653144117</v>
+        <v>1301.52430216447</v>
       </c>
       <c r="M23" t="n">
-        <v>1805.638692735791</v>
+        <v>1973.044341756144</v>
       </c>
       <c r="N23" t="n">
-        <v>2473.392631074832</v>
+        <v>2306.85084058924</v>
       </c>
       <c r="O23" t="n">
-        <v>3058.746101945358</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P23" t="n">
-        <v>3520.65736379464</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q23" t="n">
-        <v>3638.008837238015</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R23" t="n">
         <v>3638.008837238015</v>
@@ -6017,7 +6017,7 @@
         <v>3570.709597840169</v>
       </c>
       <c r="T23" t="n">
-        <v>3440.56770812517</v>
+        <v>3440.567708125169</v>
       </c>
       <c r="U23" t="n">
         <v>3270.540060124256</v>
@@ -6069,22 +6069,22 @@
         <v>202.8779242505272</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8907227025927</v>
+        <v>325.175883162914</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.847572681515</v>
+        <v>855.871057823024</v>
       </c>
       <c r="M24" t="n">
-        <v>1735.123031875897</v>
+        <v>1527.146517017406</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.323217820025</v>
+        <v>1757.346702961535</v>
       </c>
       <c r="O24" t="n">
-        <v>2153.691619503424</v>
+        <v>1945.715104644933</v>
       </c>
       <c r="P24" t="n">
-        <v>2600.818943416253</v>
+        <v>2392.842428557763</v>
       </c>
       <c r="Q24" t="n">
         <v>2639.037434098976</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>544.3243721175782</v>
+        <v>544.324372117578</v>
       </c>
       <c r="C25" t="n">
-        <v>459.0337422118282</v>
+        <v>459.0337422118281</v>
       </c>
       <c r="D25" t="n">
-        <v>392.5626558216495</v>
+        <v>392.5626558216493</v>
       </c>
       <c r="E25" t="n">
         <v>328.2951152614133</v>
@@ -6139,7 +6139,7 @@
         <v>180.1931721058725</v>
       </c>
       <c r="H25" t="n">
-        <v>110.5064543006438</v>
+        <v>110.5064543006437</v>
       </c>
       <c r="I25" t="n">
         <v>72.7601767447603</v>
@@ -6148,10 +6148,10 @@
         <v>144.4109917329216</v>
       </c>
       <c r="K25" t="n">
-        <v>339.2531569721712</v>
+        <v>339.2531569721711</v>
       </c>
       <c r="L25" t="n">
-        <v>621.1840245196462</v>
+        <v>621.1840245196461</v>
       </c>
       <c r="M25" t="n">
         <v>924.3732475485742</v>
@@ -6163,7 +6163,7 @@
         <v>1498.184989692224</v>
       </c>
       <c r="P25" t="n">
-        <v>1717.911162815727</v>
+        <v>1717.911162815728</v>
       </c>
       <c r="Q25" t="n">
         <v>1811.824702640845</v>
@@ -6184,13 +6184,13 @@
         <v>1129.589924937698</v>
       </c>
       <c r="W25" t="n">
-        <v>923.8183079228945</v>
+        <v>923.8183079228943</v>
       </c>
       <c r="X25" t="n">
-        <v>779.4743100470341</v>
+        <v>779.4743100470339</v>
       </c>
       <c r="Y25" t="n">
-        <v>642.3272839256609</v>
+        <v>642.3272839256608</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1088.519447643794</v>
       </c>
       <c r="F26" t="n">
-        <v>738.9159332426136</v>
+        <v>738.9159332426134</v>
       </c>
       <c r="G26" t="n">
         <v>383.4418197647001</v>
@@ -6227,7 +6227,7 @@
         <v>287.4541265497805</v>
       </c>
       <c r="K26" t="n">
-        <v>719.7552090150057</v>
+        <v>719.7552090150058</v>
       </c>
       <c r="L26" t="n">
         <v>1308.339556031939</v>
@@ -6242,7 +6242,7 @@
         <v>3232.967004833179</v>
       </c>
       <c r="P26" t="n">
-        <v>3694.878266682462</v>
+        <v>3694.878266682461</v>
       </c>
       <c r="Q26" t="n">
         <v>3964.53262780266</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>384.8909829884578</v>
+        <v>424.5961008897625</v>
       </c>
       <c r="C28" t="n">
-        <v>277.3371904489782</v>
+        <v>317.042308350283</v>
       </c>
       <c r="D28" t="n">
-        <v>277.3371904489782</v>
+        <v>317.042308350283</v>
       </c>
       <c r="E28" t="n">
-        <v>277.3371904489782</v>
+        <v>317.042308350283</v>
       </c>
       <c r="F28" t="n">
-        <v>277.3371904489782</v>
+        <v>231.5347512407999</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2164791354612</v>
+        <v>231.5347512407999</v>
       </c>
       <c r="H28" t="n">
-        <v>79.57543061222856</v>
+        <v>139.5848708018416</v>
       </c>
       <c r="I28" t="n">
         <v>79.57543061222856</v>
@@ -6391,7 +6391,7 @@
         <v>562.5389012951593</v>
       </c>
       <c r="M28" t="n">
-        <v>843.9079986267691</v>
+        <v>843.9079986267689</v>
       </c>
       <c r="N28" t="n">
         <v>1125.451875416253</v>
@@ -6406,28 +6406,28 @@
         <v>1644.078950929766</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.078950929766</v>
+        <v>1600.269873052649</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.078950929766</v>
+        <v>1456.019941522778</v>
       </c>
       <c r="T28" t="n">
-        <v>1480.275411469248</v>
+        <v>1292.21640206226</v>
       </c>
       <c r="U28" t="n">
-        <v>1252.511284160956</v>
+        <v>1292.21640206226</v>
       </c>
       <c r="V28" t="n">
-        <v>1059.209186343496</v>
+        <v>1098.914304244801</v>
       </c>
       <c r="W28" t="n">
-        <v>831.1744066949631</v>
+        <v>870.8795245962676</v>
       </c>
       <c r="X28" t="n">
-        <v>664.5672461853731</v>
+        <v>704.2723640866776</v>
       </c>
       <c r="Y28" t="n">
-        <v>505.1570574302702</v>
+        <v>544.8621753315748</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2017.388744623919</v>
+        <v>2017.388744623918</v>
       </c>
       <c r="C29" t="n">
         <v>1709.808618071934</v>
@@ -6449,13 +6449,13 @@
         <v>1088.519447643794</v>
       </c>
       <c r="F29" t="n">
-        <v>738.9159332426138</v>
+        <v>738.9159332426135</v>
       </c>
       <c r="G29" t="n">
-        <v>383.4418197647005</v>
+        <v>383.4418197647001</v>
       </c>
       <c r="H29" t="n">
-        <v>128.9696696906622</v>
+        <v>128.969669690662</v>
       </c>
       <c r="I29" t="n">
         <v>79.57543061222856</v>
@@ -6464,7 +6464,7 @@
         <v>287.4541265497805</v>
       </c>
       <c r="K29" t="n">
-        <v>719.7552090150061</v>
+        <v>719.7552090150057</v>
       </c>
       <c r="L29" t="n">
         <v>1308.339556031939</v>
@@ -6479,7 +6479,7 @@
         <v>3232.967004833179</v>
       </c>
       <c r="P29" t="n">
-        <v>3694.878266682461</v>
+        <v>3694.878266682462</v>
       </c>
       <c r="Q29" t="n">
         <v>3964.53262780266</v>
@@ -6540,25 +6540,25 @@
         <v>79.57543061222856</v>
       </c>
       <c r="J30" t="n">
-        <v>209.6931781179954</v>
+        <v>84.86305313099071</v>
       </c>
       <c r="K30" t="n">
-        <v>558.7059765700609</v>
+        <v>172.0552669406034</v>
       </c>
       <c r="L30" t="n">
-        <v>1089.401151230171</v>
+        <v>702.7504416007133</v>
       </c>
       <c r="M30" t="n">
-        <v>1533.961770884875</v>
+        <v>912.977887682596</v>
       </c>
       <c r="N30" t="n">
-        <v>1764.161956829003</v>
+        <v>1582.214775603531</v>
       </c>
       <c r="O30" t="n">
-        <v>1952.530358512402</v>
+        <v>2160.506873370892</v>
       </c>
       <c r="P30" t="n">
-        <v>2399.657682425231</v>
+        <v>2607.634197283722</v>
       </c>
       <c r="Q30" t="n">
         <v>2645.852687966445</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4238849185543</v>
+        <v>539.4185316920612</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8700923790748</v>
+        <v>539.4185316920612</v>
       </c>
       <c r="D31" t="n">
-        <v>303.1358433551664</v>
+        <v>450.6842826681527</v>
       </c>
       <c r="E31" t="n">
-        <v>216.6051401612007</v>
+        <v>364.1535794741869</v>
       </c>
       <c r="F31" t="n">
-        <v>131.0975830517178</v>
+        <v>278.6460223647039</v>
       </c>
       <c r="G31" t="n">
-        <v>131.0975830517178</v>
+        <v>171.5253110511869</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0975830517178</v>
+        <v>79.57543061222856</v>
       </c>
       <c r="I31" t="n">
         <v>79.57543061222856</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4061199030715</v>
+        <v>129.4061199030714</v>
       </c>
       <c r="K31" t="n">
-        <v>302.4281594450028</v>
+        <v>302.4281594450026</v>
       </c>
       <c r="L31" t="n">
-        <v>562.5389012951595</v>
+        <v>562.5389012951592</v>
       </c>
       <c r="M31" t="n">
-        <v>843.9079986267691</v>
+        <v>843.9079986267689</v>
       </c>
       <c r="N31" t="n">
         <v>1125.451875416253</v>
@@ -6637,7 +6637,7 @@
         <v>1374.079489375782</v>
       </c>
       <c r="P31" t="n">
-        <v>1571.985536801968</v>
+        <v>1571.985536801967</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.078950929766</v>
@@ -6646,25 +6646,25 @@
         <v>1579.648056174112</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.398124644242</v>
+        <v>1435.398124644241</v>
       </c>
       <c r="T31" t="n">
-        <v>1435.398124644242</v>
+        <v>1271.594585183724</v>
       </c>
       <c r="U31" t="n">
-        <v>1207.633997335949</v>
+        <v>1271.594585183724</v>
       </c>
       <c r="V31" t="n">
-        <v>1014.33189951849</v>
+        <v>1078.292487366264</v>
       </c>
       <c r="W31" t="n">
-        <v>786.2971198699566</v>
+        <v>850.2577077177308</v>
       </c>
       <c r="X31" t="n">
-        <v>619.6899593603666</v>
+        <v>819.0947948889763</v>
       </c>
       <c r="Y31" t="n">
-        <v>619.6899593603666</v>
+        <v>659.6846061338736</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2001.299381131194</v>
+        <v>2001.299381131195</v>
       </c>
       <c r="C32" t="n">
-        <v>1695.921430029331</v>
+        <v>1695.921430029332</v>
       </c>
       <c r="D32" t="n">
-        <v>1401.240297261129</v>
+        <v>1401.24029726113</v>
       </c>
       <c r="E32" t="n">
-        <v>1079.036610501434</v>
+        <v>1079.036610501435</v>
       </c>
       <c r="F32" t="n">
-        <v>731.6352715503751</v>
+        <v>731.6352715503757</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3633335225833</v>
+        <v>378.3633335225836</v>
       </c>
       <c r="H32" t="n">
         <v>126.0933588986668</v>
       </c>
       <c r="I32" t="n">
-        <v>78.90129527035468</v>
+        <v>78.90129527035467</v>
       </c>
       <c r="J32" t="n">
-        <v>286.7799912079067</v>
+        <v>267.986262264854</v>
       </c>
       <c r="K32" t="n">
-        <v>719.0810736731319</v>
+        <v>700.2873447300792</v>
       </c>
       <c r="L32" t="n">
-        <v>1274.632788938245</v>
+        <v>1288.871691747012</v>
       </c>
       <c r="M32" t="n">
-        <v>1946.152828529918</v>
+        <v>1960.391731338686</v>
       </c>
       <c r="N32" t="n">
-        <v>2613.906766868959</v>
+        <v>2628.145669677726</v>
       </c>
       <c r="O32" t="n">
-        <v>3199.260237739485</v>
+        <v>3213.499140548252</v>
       </c>
       <c r="P32" t="n">
-        <v>3661.171499588768</v>
+        <v>3675.410402397535</v>
       </c>
       <c r="Q32" t="n">
-        <v>3930.825860708966</v>
+        <v>3945.064763517733</v>
       </c>
       <c r="R32" t="n">
-        <v>3945.064763517734</v>
+        <v>3945.064763517733</v>
       </c>
       <c r="S32" t="n">
         <v>3857.70453693628</v>
@@ -6731,10 +6731,10 @@
         <v>3707.501660037672</v>
       </c>
       <c r="U32" t="n">
-        <v>3517.413024853149</v>
+        <v>3517.41302485315</v>
       </c>
       <c r="V32" t="n">
-        <v>3249.934703348127</v>
+        <v>3249.934703348128</v>
       </c>
       <c r="W32" t="n">
         <v>2960.750613916562</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>986.7436186129393</v>
+        <v>986.743618612939</v>
       </c>
       <c r="C33" t="n">
-        <v>812.2905893318123</v>
+        <v>812.290589331812</v>
       </c>
       <c r="D33" t="n">
-        <v>663.356179670561</v>
+        <v>663.3561796705608</v>
       </c>
       <c r="E33" t="n">
-        <v>504.1187246651054</v>
+        <v>504.1187246651053</v>
       </c>
       <c r="F33" t="n">
-        <v>357.5841666919904</v>
+        <v>357.5841666919903</v>
       </c>
       <c r="G33" t="n">
-        <v>220.2665136355661</v>
+        <v>220.266513635566</v>
       </c>
       <c r="H33" t="n">
         <v>120.5456479503137</v>
       </c>
       <c r="I33" t="n">
-        <v>78.90129527035468</v>
+        <v>78.90129527035467</v>
       </c>
       <c r="J33" t="n">
         <v>209.0190427761216</v>
@@ -6783,13 +6783,13 @@
         <v>558.031841228187</v>
       </c>
       <c r="L33" t="n">
-        <v>1088.727015888297</v>
+        <v>721.5950740378725</v>
       </c>
       <c r="M33" t="n">
-        <v>1533.287635543001</v>
+        <v>1143.363939459038</v>
       </c>
       <c r="N33" t="n">
-        <v>1763.487821487129</v>
+        <v>1373.564125403167</v>
       </c>
       <c r="O33" t="n">
         <v>1951.856223170528</v>
@@ -6798,16 +6798,16 @@
         <v>2398.983547083357</v>
       </c>
       <c r="Q33" t="n">
-        <v>2645.178552624571</v>
+        <v>2645.17855262457</v>
       </c>
       <c r="R33" t="n">
         <v>2631.749672044793</v>
       </c>
       <c r="S33" t="n">
-        <v>2484.581384287859</v>
+        <v>2484.581384287858</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.090865961197</v>
+        <v>2288.090865961196</v>
       </c>
       <c r="U33" t="n">
         <v>2059.960219563438</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>604.3603273546436</v>
+        <v>460.0320495407402</v>
       </c>
       <c r="C34" t="n">
-        <v>499.0087102652853</v>
+        <v>354.6804324513819</v>
       </c>
       <c r="D34" t="n">
-        <v>499.0087102652853</v>
+        <v>268.1483588775949</v>
       </c>
       <c r="E34" t="n">
-        <v>414.6801825214409</v>
+        <v>183.8198311337504</v>
       </c>
       <c r="F34" t="n">
-        <v>331.3748008620792</v>
+        <v>183.8198311337504</v>
       </c>
       <c r="G34" t="n">
-        <v>226.4562649986834</v>
+        <v>78.90129527035467</v>
       </c>
       <c r="H34" t="n">
-        <v>136.7085600098464</v>
+        <v>78.90129527035467</v>
       </c>
       <c r="I34" t="n">
-        <v>78.90129527035468</v>
+        <v>78.90129527035467</v>
       </c>
       <c r="J34" t="n">
-        <v>130.8903367198615</v>
+        <v>130.8903367198616</v>
       </c>
       <c r="K34" t="n">
-        <v>306.0707284204566</v>
+        <v>306.0707284204568</v>
       </c>
       <c r="L34" t="n">
-        <v>568.339822429277</v>
+        <v>568.3398224292773</v>
       </c>
       <c r="M34" t="n">
-        <v>851.8672719195506</v>
+        <v>851.8672719195508</v>
       </c>
       <c r="N34" t="n">
         <v>1135.569500867699</v>
       </c>
       <c r="O34" t="n">
-        <v>1386.355466985891</v>
+        <v>1386.355466985892</v>
       </c>
       <c r="P34" t="n">
-        <v>1586.41986657074</v>
+        <v>1586.419866570741</v>
       </c>
       <c r="Q34" t="n">
         <v>1660.671632857203</v>
       </c>
       <c r="R34" t="n">
-        <v>1598.44291355167</v>
+        <v>1598.442913551671</v>
       </c>
       <c r="S34" t="n">
-        <v>1598.44291355167</v>
+        <v>1456.395157471921</v>
       </c>
       <c r="T34" t="n">
-        <v>1598.44291355167</v>
+        <v>1316.641473462631</v>
       </c>
       <c r="U34" t="n">
-        <v>1372.880961693499</v>
+        <v>1316.641473462631</v>
       </c>
       <c r="V34" t="n">
-        <v>1181.781039326161</v>
+        <v>1125.541551095293</v>
       </c>
       <c r="W34" t="n">
-        <v>955.9484351277489</v>
+        <v>899.7089468968813</v>
       </c>
       <c r="X34" t="n">
-        <v>879.632239651316</v>
+        <v>735.3039618374127</v>
       </c>
       <c r="Y34" t="n">
-        <v>722.4242263463346</v>
+        <v>578.0959485324313</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>72.7601767447603</v>
       </c>
       <c r="J35" t="n">
-        <v>113.2332236619593</v>
+        <v>280.6388726823124</v>
       </c>
       <c r="K35" t="n">
-        <v>545.5343061271845</v>
+        <v>712.9399551475376</v>
       </c>
       <c r="L35" t="n">
-        <v>1134.118653144117</v>
+        <v>1301.52430216447</v>
       </c>
       <c r="M35" t="n">
-        <v>1805.638692735791</v>
+        <v>1973.044341756144</v>
       </c>
       <c r="N35" t="n">
-        <v>2473.392631074832</v>
+        <v>2640.798280095185</v>
       </c>
       <c r="O35" t="n">
-        <v>3058.746101945358</v>
+        <v>3102.396152213071</v>
       </c>
       <c r="P35" t="n">
-        <v>3520.65736379464</v>
+        <v>3564.307414062354</v>
       </c>
       <c r="Q35" t="n">
-        <v>3638.008837238015</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R35" t="n">
         <v>3638.008837238015</v>
@@ -6977,10 +6977,10 @@
         <v>2753.999623554885</v>
       </c>
       <c r="X35" t="n">
-        <v>2464.179418315962</v>
+        <v>2464.179418315963</v>
       </c>
       <c r="Y35" t="n">
-        <v>2157.685639362307</v>
+        <v>2157.685639362308</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>202.8779242505272</v>
       </c>
       <c r="K36" t="n">
-        <v>551.8907227025927</v>
+        <v>290.0701380601399</v>
       </c>
       <c r="L36" t="n">
-        <v>1082.585897362703</v>
+        <v>820.7653127202498</v>
       </c>
       <c r="M36" t="n">
-        <v>1292.813343444585</v>
+        <v>1452.500961886982</v>
       </c>
       <c r="N36" t="n">
-        <v>1523.013529388714</v>
+        <v>1682.70114783111</v>
       </c>
       <c r="O36" t="n">
-        <v>1945.715104644933</v>
+        <v>2260.993245598471</v>
       </c>
       <c r="P36" t="n">
         <v>2392.842428557763</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.3243721175783</v>
+        <v>544.3243721175777</v>
       </c>
       <c r="C37" t="n">
-        <v>459.0337422118283</v>
+        <v>459.0337422118278</v>
       </c>
       <c r="D37" t="n">
-        <v>392.5626558216495</v>
+        <v>392.5626558216489</v>
       </c>
       <c r="E37" t="n">
-        <v>328.2951152614133</v>
+        <v>328.2951152614128</v>
       </c>
       <c r="F37" t="n">
-        <v>265.0507207856599</v>
+        <v>265.0507207856593</v>
       </c>
       <c r="G37" t="n">
-        <v>180.1931721058724</v>
+        <v>180.1931721058719</v>
       </c>
       <c r="H37" t="n">
-        <v>110.5064543006437</v>
+        <v>110.5064543006434</v>
       </c>
       <c r="I37" t="n">
         <v>72.7601767447603</v>
       </c>
       <c r="J37" t="n">
-        <v>144.4109917329215</v>
+        <v>144.4109917329214</v>
       </c>
       <c r="K37" t="n">
-        <v>339.2531569721712</v>
+        <v>339.2531569721708</v>
       </c>
       <c r="L37" t="n">
-        <v>621.1840245196463</v>
+        <v>621.1840245196457</v>
       </c>
       <c r="M37" t="n">
-        <v>924.3732475485743</v>
+        <v>924.3732475485733</v>
       </c>
       <c r="N37" t="n">
-        <v>1227.737250035377</v>
+        <v>1227.737250035376</v>
       </c>
       <c r="O37" t="n">
-        <v>1498.184989692224</v>
+        <v>1498.184989692223</v>
       </c>
       <c r="P37" t="n">
-        <v>1717.911162815728</v>
+        <v>1717.911162815727</v>
       </c>
       <c r="Q37" t="n">
-        <v>1811.824702640845</v>
+        <v>1811.824702640844</v>
       </c>
       <c r="R37" t="n">
-        <v>1769.65697051892</v>
+        <v>1769.656970518919</v>
       </c>
       <c r="S37" t="n">
-        <v>1647.670201622779</v>
+        <v>1647.670201622778</v>
       </c>
       <c r="T37" t="n">
-        <v>1506.129824795991</v>
+        <v>1506.12982479599</v>
       </c>
       <c r="U37" t="n">
-        <v>1300.628860121428</v>
+        <v>1300.628860121427</v>
       </c>
       <c r="V37" t="n">
-        <v>1129.589924937698</v>
+        <v>1129.589924937697</v>
       </c>
       <c r="W37" t="n">
-        <v>923.8183079228945</v>
+        <v>923.8183079228941</v>
       </c>
       <c r="X37" t="n">
-        <v>779.4743100470341</v>
+        <v>779.4743100470337</v>
       </c>
       <c r="Y37" t="n">
-        <v>642.327283925661</v>
+        <v>642.3272839256605</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1569.414388402088</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.794242817494</v>
+        <v>1294.794242817495</v>
       </c>
       <c r="E38" t="n">
-        <v>992.6515432414071</v>
+        <v>992.6515432414074</v>
       </c>
       <c r="F38" t="n">
         <v>665.3111914739568</v>
@@ -7166,10 +7166,10 @@
         <v>332.100240629773</v>
       </c>
       <c r="H38" t="n">
-        <v>99.89125318946417</v>
+        <v>99.89125318946415</v>
       </c>
       <c r="I38" t="n">
-        <v>72.76017674476032</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J38" t="n">
         <v>280.6388726823124</v>
@@ -7181,25 +7181,25 @@
         <v>1301.52430216447</v>
       </c>
       <c r="M38" t="n">
-        <v>1639.0969022502</v>
+        <v>1973.044341756144</v>
       </c>
       <c r="N38" t="n">
-        <v>2306.850840589241</v>
+        <v>2306.85084058924</v>
       </c>
       <c r="O38" t="n">
-        <v>2892.204311459767</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P38" t="n">
-        <v>3354.11557330905</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q38" t="n">
-        <v>3623.769934429248</v>
+        <v>3623.769934429247</v>
       </c>
       <c r="R38" t="n">
-        <v>3638.008837238016</v>
+        <v>3638.008837238015</v>
       </c>
       <c r="S38" t="n">
-        <v>3570.70959784017</v>
+        <v>3570.709597840169</v>
       </c>
       <c r="T38" t="n">
         <v>3440.56770812517</v>
@@ -7214,10 +7214,10 @@
         <v>2753.999623554885</v>
       </c>
       <c r="X38" t="n">
-        <v>2464.179418315962</v>
+        <v>2464.179418315963</v>
       </c>
       <c r="Y38" t="n">
-        <v>2157.685639362307</v>
+        <v>2157.685639362308</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>114.4045294247194</v>
       </c>
       <c r="I39" t="n">
-        <v>72.76017674476032</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J39" t="n">
         <v>202.8779242505272</v>
@@ -7260,7 +7260,7 @@
         <v>1082.585897362703</v>
       </c>
       <c r="M39" t="n">
-        <v>1527.146517017406</v>
+        <v>1292.813343444585</v>
       </c>
       <c r="N39" t="n">
         <v>1757.346702961535</v>
@@ -7327,19 +7327,19 @@
         <v>110.5064543006438</v>
       </c>
       <c r="I40" t="n">
-        <v>72.76017674476032</v>
+        <v>72.7601767447603</v>
       </c>
       <c r="J40" t="n">
-        <v>144.4109917329216</v>
+        <v>144.4109917329214</v>
       </c>
       <c r="K40" t="n">
-        <v>339.2531569721713</v>
+        <v>339.2531569721711</v>
       </c>
       <c r="L40" t="n">
-        <v>621.1840245196463</v>
+        <v>621.1840245196461</v>
       </c>
       <c r="M40" t="n">
-        <v>924.3732475485745</v>
+        <v>924.3732475485742</v>
       </c>
       <c r="N40" t="n">
         <v>1227.737250035377</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1854.731352320342</v>
+        <v>1854.731352320344</v>
       </c>
       <c r="C41" t="n">
-        <v>1569.414388402087</v>
+        <v>1569.414388402089</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.794242817494</v>
+        <v>1294.794242817496</v>
       </c>
       <c r="E41" t="n">
-        <v>992.6515432414064</v>
+        <v>992.6515432414084</v>
       </c>
       <c r="F41" t="n">
-        <v>665.3111914739559</v>
+        <v>665.3111914739577</v>
       </c>
       <c r="G41" t="n">
-        <v>332.100240629772</v>
+        <v>332.1002406297739</v>
       </c>
       <c r="H41" t="n">
-        <v>99.89125318946409</v>
+        <v>99.89125318946417</v>
       </c>
       <c r="I41" t="n">
-        <v>72.76017674476027</v>
+        <v>72.76017674476032</v>
       </c>
       <c r="J41" t="n">
-        <v>113.2332236619593</v>
+        <v>280.6388726823125</v>
       </c>
       <c r="K41" t="n">
-        <v>545.5343061271844</v>
+        <v>712.9399551475377</v>
       </c>
       <c r="L41" t="n">
-        <v>1134.118653144117</v>
+        <v>1301.524302164471</v>
       </c>
       <c r="M41" t="n">
-        <v>1805.638692735791</v>
+        <v>1639.096902250199</v>
       </c>
       <c r="N41" t="n">
-        <v>2473.392631074832</v>
+        <v>2306.85084058924</v>
       </c>
       <c r="O41" t="n">
-        <v>3058.746101945358</v>
+        <v>2892.204311459766</v>
       </c>
       <c r="P41" t="n">
-        <v>3520.65736379464</v>
+        <v>3354.115573309049</v>
       </c>
       <c r="Q41" t="n">
-        <v>3638.008837238014</v>
+        <v>3623.769934429248</v>
       </c>
       <c r="R41" t="n">
-        <v>3638.008837238014</v>
+        <v>3638.008837238016</v>
       </c>
       <c r="S41" t="n">
-        <v>3570.709597840168</v>
+        <v>3570.70959784017</v>
       </c>
       <c r="T41" t="n">
-        <v>3440.567708125168</v>
+        <v>3440.567708125171</v>
       </c>
       <c r="U41" t="n">
-        <v>3270.540060124256</v>
+        <v>3270.540060124258</v>
       </c>
       <c r="V41" t="n">
-        <v>3023.122725802842</v>
+        <v>3023.122725802844</v>
       </c>
       <c r="W41" t="n">
-        <v>2753.999623554885</v>
+        <v>2753.999623554887</v>
       </c>
       <c r="X41" t="n">
-        <v>2464.179418315962</v>
+        <v>2464.179418315964</v>
       </c>
       <c r="Y41" t="n">
-        <v>2157.685639362307</v>
+        <v>2157.685639362309</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>497.977606139511</v>
       </c>
       <c r="F42" t="n">
-        <v>351.4430481663959</v>
+        <v>351.443048166396</v>
       </c>
       <c r="G42" t="n">
-        <v>214.1253951099716</v>
+        <v>214.1253951099717</v>
       </c>
       <c r="H42" t="n">
-        <v>114.4045294247193</v>
+        <v>114.4045294247194</v>
       </c>
       <c r="I42" t="n">
-        <v>72.76017674476027</v>
+        <v>72.76017674476032</v>
       </c>
       <c r="J42" t="n">
-        <v>202.8779242505271</v>
+        <v>202.8779242505272</v>
       </c>
       <c r="K42" t="n">
-        <v>551.8907227025926</v>
+        <v>290.0701380601399</v>
       </c>
       <c r="L42" t="n">
-        <v>1082.585897362703</v>
+        <v>589.2986220813965</v>
       </c>
       <c r="M42" t="n">
-        <v>1292.813343444585</v>
+        <v>1260.574081275779</v>
       </c>
       <c r="N42" t="n">
-        <v>1523.013529388713</v>
+        <v>1965.323217820025</v>
       </c>
       <c r="O42" t="n">
-        <v>1945.715104644933</v>
+        <v>2153.691619503424</v>
       </c>
       <c r="P42" t="n">
-        <v>2392.842428557763</v>
+        <v>2600.818943416253</v>
       </c>
       <c r="Q42" t="n">
         <v>2639.037434098976</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.3243721175782</v>
+        <v>544.3243721175784</v>
       </c>
       <c r="C43" t="n">
-        <v>459.0337422118282</v>
+        <v>459.0337422118284</v>
       </c>
       <c r="D43" t="n">
-        <v>392.5626558216494</v>
+        <v>392.5626558216496</v>
       </c>
       <c r="E43" t="n">
-        <v>328.2951152614132</v>
+        <v>328.2951152614134</v>
       </c>
       <c r="F43" t="n">
-        <v>265.0507207856598</v>
+        <v>265.05072078566</v>
       </c>
       <c r="G43" t="n">
-        <v>180.1931721058724</v>
+        <v>180.1931721058725</v>
       </c>
       <c r="H43" t="n">
-        <v>110.5064543006437</v>
+        <v>110.5064543006438</v>
       </c>
       <c r="I43" t="n">
-        <v>72.76017674476027</v>
+        <v>72.76017674476032</v>
       </c>
       <c r="J43" t="n">
-        <v>144.4109917329216</v>
+        <v>144.4109917329212</v>
       </c>
       <c r="K43" t="n">
-        <v>339.2531569721713</v>
+        <v>339.2531569721709</v>
       </c>
       <c r="L43" t="n">
-        <v>621.1840245196463</v>
+        <v>621.1840245196458</v>
       </c>
       <c r="M43" t="n">
-        <v>924.3732475485745</v>
+        <v>924.3732475485738</v>
       </c>
       <c r="N43" t="n">
-        <v>1227.737250035377</v>
+        <v>1227.737250035376</v>
       </c>
       <c r="O43" t="n">
         <v>1498.184989692224</v>
@@ -7588,7 +7588,7 @@
         <v>1717.911162815727</v>
       </c>
       <c r="Q43" t="n">
-        <v>1811.824702640844</v>
+        <v>1811.824702640845</v>
       </c>
       <c r="R43" t="n">
         <v>1769.65697051892</v>
@@ -7606,13 +7606,13 @@
         <v>1129.589924937698</v>
       </c>
       <c r="W43" t="n">
-        <v>923.8183079228945</v>
+        <v>923.8183079228947</v>
       </c>
       <c r="X43" t="n">
-        <v>779.4743100470341</v>
+        <v>779.4743100470344</v>
       </c>
       <c r="Y43" t="n">
-        <v>642.3272839256609</v>
+        <v>642.3272839256612</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1854.731352320344</v>
+        <v>1854.731352320342</v>
       </c>
       <c r="C44" t="n">
-        <v>1569.414388402089</v>
+        <v>1569.414388402088</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.794242817495</v>
+        <v>1294.794242817494</v>
       </c>
       <c r="E44" t="n">
-        <v>992.6515432414079</v>
+        <v>992.6515432414069</v>
       </c>
       <c r="F44" t="n">
-        <v>665.3111914739573</v>
+        <v>665.3111914739561</v>
       </c>
       <c r="G44" t="n">
-        <v>332.1002406297735</v>
+        <v>332.1002406297727</v>
       </c>
       <c r="H44" t="n">
         <v>99.89125318946418</v>
@@ -7646,28 +7646,28 @@
         <v>72.76017674476032</v>
       </c>
       <c r="J44" t="n">
-        <v>280.6388726823125</v>
+        <v>113.2332236619594</v>
       </c>
       <c r="K44" t="n">
-        <v>712.9399551475377</v>
+        <v>545.5343061271845</v>
       </c>
       <c r="L44" t="n">
-        <v>1301.524302164471</v>
+        <v>1134.118653144117</v>
       </c>
       <c r="M44" t="n">
-        <v>1973.044341756144</v>
+        <v>1653.335805058968</v>
       </c>
       <c r="N44" t="n">
-        <v>2640.798280095185</v>
+        <v>2321.089743398009</v>
       </c>
       <c r="O44" t="n">
-        <v>2892.204311459767</v>
+        <v>2906.443214268535</v>
       </c>
       <c r="P44" t="n">
-        <v>3354.11557330905</v>
+        <v>3368.354476117817</v>
       </c>
       <c r="Q44" t="n">
-        <v>3623.769934429248</v>
+        <v>3638.008837238016</v>
       </c>
       <c r="R44" t="n">
         <v>3638.008837238016</v>
@@ -7676,22 +7676,22 @@
         <v>3570.70959784017</v>
       </c>
       <c r="T44" t="n">
-        <v>3440.567708125171</v>
+        <v>3440.56770812517</v>
       </c>
       <c r="U44" t="n">
-        <v>3270.540060124257</v>
+        <v>3270.540060124256</v>
       </c>
       <c r="V44" t="n">
         <v>3023.122725802843</v>
       </c>
       <c r="W44" t="n">
-        <v>2753.999623554886</v>
+        <v>2753.999623554885</v>
       </c>
       <c r="X44" t="n">
-        <v>2464.179418315963</v>
+        <v>2464.179418315962</v>
       </c>
       <c r="Y44" t="n">
-        <v>2157.685639362308</v>
+        <v>2157.685639362307</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>657.2150611449665</v>
       </c>
       <c r="E45" t="n">
-        <v>497.977606139511</v>
+        <v>497.9776061395111</v>
       </c>
       <c r="F45" t="n">
         <v>351.443048166396</v>
@@ -7731,13 +7731,13 @@
         <v>551.8907227025927</v>
       </c>
       <c r="L45" t="n">
-        <v>1082.585897362703</v>
+        <v>842.370120335406</v>
       </c>
       <c r="M45" t="n">
-        <v>1527.146517017406</v>
+        <v>1052.597566417289</v>
       </c>
       <c r="N45" t="n">
-        <v>1757.346702961534</v>
+        <v>1757.346702961535</v>
       </c>
       <c r="O45" t="n">
         <v>1945.715104644933</v>
@@ -7783,19 +7783,19 @@
         <v>544.3243721175782</v>
       </c>
       <c r="C46" t="n">
-        <v>459.0337422118281</v>
+        <v>459.0337422118282</v>
       </c>
       <c r="D46" t="n">
         <v>392.5626558216493</v>
       </c>
       <c r="E46" t="n">
-        <v>328.2951152614131</v>
+        <v>328.2951152614132</v>
       </c>
       <c r="F46" t="n">
-        <v>265.0507207856596</v>
+        <v>265.0507207856597</v>
       </c>
       <c r="G46" t="n">
-        <v>180.1931721058721</v>
+        <v>180.1931721058722</v>
       </c>
       <c r="H46" t="n">
         <v>110.5064543006438</v>
@@ -7813,7 +7813,7 @@
         <v>621.1840245196461</v>
       </c>
       <c r="M46" t="n">
-        <v>924.3732475485741</v>
+        <v>924.3732475485742</v>
       </c>
       <c r="N46" t="n">
         <v>1227.737250035377</v>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>242.3646406817305</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
@@ -7994,7 +7994,7 @@
         <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L3" t="n">
-        <v>145.1526054916175</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>138.2177578250447</v>
@@ -8073,7 +8073,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
         <v>146.857819827733</v>
@@ -8146,10 +8146,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>236.944458939016</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
         <v>238.109041496981</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>146.5799997977648</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,7 +8377,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M7" t="n">
         <v>145.8018296893165</v>
@@ -8386,7 +8386,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O7" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8459,7 +8459,7 @@
         <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
@@ -8468,7 +8468,7 @@
         <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,7 +8535,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8544,7 +8544,7 @@
         <v>146.0261571736144</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>149.2771449294653</v>
@@ -8620,10 +8620,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>80.34056858484985</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.09095986638029</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>213.6782013528115</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.6782013528114</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>1.207496715432939</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>43.47953529714488</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>51.33368976311615</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>213.6782013528114</v>
+        <v>287.3916600296982</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>1.207496715432939</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>100.0262784463835</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>51.33368976311615</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>236.7001753260819</v>
       </c>
       <c r="O18" t="n">
-        <v>89.45788021601879</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>100.0262784463844</v>
+        <v>100.0262784463835</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>100.0262784463835</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.47368997624442</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>51.33368976311615</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>35.46034858866079</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9127446153902</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>236.7001753260823</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>443.4714161381889</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>150.1130505831316</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>384.2949198516424</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>51.33368976311615</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>236.7001753260823</v>
+        <v>213.6782013528114</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,16 +10598,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>255.7945259570488</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.47368997624396</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.33368976311615</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>425.7658617018679</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>236.7001753260819</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>112.1928875272328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>100.0262784463835</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>236.7001753260819</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>112.1928875272316</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.47368997624304</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>51.33368976311615</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>137.0356072844152</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>236.7001753260821</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>295.6722328091727</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>43.47953529714567</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>51.33368976311615</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>128.1981462859877</v>
       </c>
       <c r="M45" t="n">
-        <v>236.7001753260816</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>33.91058270219209</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.29099055383826</v>
+        <v>124.2002198419264</v>
       </c>
       <c r="T11" t="n">
-        <v>186.4144436559093</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>225.9013443589639</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>344.4959760245929</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.0028140021777</v>
+        <v>361.0028140021774</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.58997131823402</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>123.3803483643364</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.1988379926932</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.1859233690553</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>141.582946031049</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5638234652358</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.94278761838405</v>
+        <v>94.94278761838385</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.32002763876447</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3408740452391</v>
+        <v>98.90130451466656</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>197.6989458965791</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.0199278658765</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>226.9025186699519</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>200.4745307351612</v>
+        <v>200.474530735161</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.3495286982188</v>
+        <v>193.3495286982186</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>357.4987170096044</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>34.22432286916754</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>387.4528141738012</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>84.43373851831623</v>
+        <v>84.43373851831603</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.2002198419266</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>186.4144436559093</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>107.5583765525597</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.0028140021777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.5968555280614</v>
+        <v>154.5968555280612</v>
       </c>
       <c r="C16" t="n">
-        <v>142.0116964447519</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.3803483643364</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.1988379926932</v>
+        <v>121.198837992693</v>
       </c>
       <c r="F16" t="n">
-        <v>120.1859233690553</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.582946031049</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>126.5638234652358</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32002763876467</v>
+        <v>99.32002763876447</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>197.6989458965793</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>261.0199278658765</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>226.9025186699519</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>115.7473445088758</v>
       </c>
       <c r="X16" t="n">
-        <v>146.0701669070801</v>
+        <v>200.474530735161</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>193.3495286982186</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>87.84690653366931</v>
+        <v>87.8469065336693</v>
       </c>
       <c r="E28" t="n">
-        <v>85.66539616202613</v>
+        <v>85.66539616202611</v>
       </c>
       <c r="F28" t="n">
-        <v>84.6524815383882</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.0495042003819</v>
       </c>
       <c r="H28" t="n">
-        <v>1.295743596568448</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>59.40934578771694</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.78658580809756</v>
+        <v>20.41559870975038</v>
       </c>
       <c r="S28" t="n">
-        <v>142.807432214572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>225.4864860352096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4782546140848</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.0495042003818</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>91.03038163456867</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>8.402414872622558</v>
+        <v>59.40934578771694</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>162.1655040659122</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>225.4864860352096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>134.0898052040271</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.8160868675517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>85.66675283804919</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>82.47232784276807</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>88.85022793894861</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>57.2291920920968</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>140.6272785189519</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>159.9853503702921</v>
+        <v>21.62920320109564</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>223.3063323395895</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20790168720566</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>823078.527136759</v>
+        <v>823078.5271367589</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823078.527136759</v>
+        <v>823078.5271367589</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927306.6292569031</v>
+        <v>927306.6292569027</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922435.4345481917</v>
+        <v>922435.4345481918</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922917.2719931571</v>
+        <v>922917.271993157</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594768.978769361</v>
+        <v>594768.9787693609</v>
       </c>
       <c r="C2" t="n">
         <v>594768.9787693609</v>
@@ -26320,37 +26320,37 @@
         <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>521532.9670178449</v>
+      </c>
+      <c r="F2" t="n">
         <v>521532.967017845</v>
       </c>
-      <c r="F2" t="n">
-        <v>521532.9670178452</v>
-      </c>
       <c r="G2" t="n">
-        <v>595255.2831516062</v>
+        <v>595255.2831516059</v>
       </c>
       <c r="H2" t="n">
-        <v>595255.283151606</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="J2" t="n">
-        <v>586112.2114370519</v>
+        <v>586112.211437052</v>
       </c>
       <c r="K2" t="n">
-        <v>586112.2114370521</v>
+        <v>586112.2114370518</v>
       </c>
       <c r="L2" t="n">
-        <v>587016.6044201924</v>
+        <v>587016.6044201928</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="N2" t="n">
         <v>595255.283151606</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="P2" t="n">
         <v>595255.2831516057</v>
@@ -26372,13 +26372,13 @@
         <v>2617.583265578577</v>
       </c>
       <c r="E3" t="n">
-        <v>809734.745700044</v>
+        <v>809734.7457000439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46059.17827044753</v>
+        <v>46059.17827044741</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26644.37956547954</v>
+        <v>26644.37956547969</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47803.30122694358</v>
+        <v>47803.30122694352</v>
       </c>
       <c r="M3" t="n">
-        <v>219596.495755309</v>
+        <v>219596.4957553089</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2555.674917186802</v>
+        <v>2555.674917187031</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408996.6277656587</v>
+        <v>408996.6277656588</v>
       </c>
       <c r="C4" t="n">
         <v>408996.6277656588</v>
@@ -26424,16 +26424,16 @@
         <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
-        <v>111874.3066116965</v>
+        <v>111874.3066116967</v>
       </c>
       <c r="F4" t="n">
-        <v>111874.3066116966</v>
+        <v>111874.3066116967</v>
       </c>
       <c r="G4" t="n">
         <v>170055.4386628233</v>
       </c>
       <c r="H4" t="n">
-        <v>170055.4386628232</v>
+        <v>170055.4386628233</v>
       </c>
       <c r="I4" t="n">
         <v>170055.4386628233</v>
@@ -26442,10 +26442,10 @@
         <v>155877.9674147853</v>
       </c>
       <c r="K4" t="n">
-        <v>155877.9674147854</v>
+        <v>155877.9674147853</v>
       </c>
       <c r="L4" t="n">
-        <v>157280.3413560297</v>
+        <v>157280.3413560298</v>
       </c>
       <c r="M4" t="n">
         <v>170055.4386628232</v>
@@ -26457,7 +26457,7 @@
         <v>170055.4386628232</v>
       </c>
       <c r="P4" t="n">
-        <v>170055.4386628232</v>
+        <v>170055.4386628233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>71598.6256029559</v>
+        <v>71598.62560295589</v>
       </c>
       <c r="F5" t="n">
-        <v>71598.6256029559</v>
+        <v>71598.62560295589</v>
       </c>
       <c r="G5" t="n">
-        <v>76438.81192547872</v>
+        <v>76438.81192547869</v>
       </c>
       <c r="H5" t="n">
-        <v>76438.8119254787</v>
+        <v>76438.81192547869</v>
       </c>
       <c r="I5" t="n">
         <v>76438.81192547869</v>
@@ -26494,22 +26494,22 @@
         <v>79765.47946349409</v>
       </c>
       <c r="K5" t="n">
-        <v>79765.47946349411</v>
+        <v>79765.47946349409</v>
       </c>
       <c r="L5" t="n">
-        <v>79436.41994470704</v>
+        <v>79436.41994470703</v>
       </c>
       <c r="M5" t="n">
         <v>76438.81192547867</v>
       </c>
       <c r="N5" t="n">
+        <v>76438.81192547867</v>
+      </c>
+      <c r="O5" t="n">
         <v>76438.81192547869</v>
       </c>
-      <c r="O5" t="n">
-        <v>76438.81192547866</v>
-      </c>
       <c r="P5" t="n">
-        <v>76438.8119254787</v>
+        <v>76438.81192547869</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149422.3663455067</v>
+        <v>149420.6894338437</v>
       </c>
       <c r="C6" t="n">
-        <v>151726.6874226061</v>
+        <v>151725.0105109432</v>
       </c>
       <c r="D6" t="n">
-        <v>149956.6126553833</v>
+        <v>149956.6126553832</v>
       </c>
       <c r="E6" t="n">
-        <v>-471674.7108968515</v>
+        <v>-471928.9257800714</v>
       </c>
       <c r="F6" t="n">
-        <v>338060.0348031927</v>
+        <v>337805.8199199726</v>
       </c>
       <c r="G6" t="n">
-        <v>302701.8542928566</v>
+        <v>302701.8542928565</v>
       </c>
       <c r="H6" t="n">
-        <v>348761.0325633042</v>
+        <v>348761.0325633038</v>
       </c>
       <c r="I6" t="n">
-        <v>348761.0325633039</v>
+        <v>348761.0325633038</v>
       </c>
       <c r="J6" t="n">
-        <v>323824.3849932929</v>
+        <v>323792.8571597944</v>
       </c>
       <c r="K6" t="n">
-        <v>350468.7645587727</v>
+        <v>350437.2367252739</v>
       </c>
       <c r="L6" t="n">
-        <v>302496.541892512</v>
+        <v>302468.1326555076</v>
       </c>
       <c r="M6" t="n">
         <v>129164.536807995</v>
@@ -26558,7 +26558,7 @@
         <v>348761.032563304</v>
       </c>
       <c r="O6" t="n">
-        <v>346205.3576461171</v>
+        <v>346205.3576461167</v>
       </c>
       <c r="P6" t="n">
         <v>348761.0325633038</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="F2" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="G2" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H2" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I2" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J2" t="n">
+        <v>60.76856648454306</v>
+      </c>
+      <c r="K2" t="n">
         <v>60.76856648454305</v>
       </c>
-      <c r="K2" t="n">
-        <v>60.76856648454311</v>
-      </c>
       <c r="L2" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="M2" t="n">
         <v>82.80909749193536</v>
@@ -26722,10 +26722,10 @@
         <v>82.80909749193536</v>
       </c>
       <c r="O2" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="P2" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>650.4311735051076</v>
       </c>
       <c r="O3" t="n">
+        <v>650.4311735051077</v>
+      </c>
+      <c r="P3" t="n">
         <v>650.4311735051076</v>
-      </c>
-      <c r="P3" t="n">
-        <v>650.4311735051077</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>909.5022093095043</v>
+        <v>909.5022093095038</v>
       </c>
       <c r="F4" t="n">
-        <v>909.5022093095043</v>
+        <v>909.5022093095038</v>
       </c>
       <c r="G4" t="n">
-        <v>909.5022093095043</v>
+        <v>909.5022093095038</v>
       </c>
       <c r="H4" t="n">
-        <v>909.502209309504</v>
+        <v>909.5022093095038</v>
       </c>
       <c r="I4" t="n">
         <v>909.5022093095038</v>
@@ -26817,19 +26817,19 @@
         <v>994.692882652857</v>
       </c>
       <c r="L4" t="n">
-        <v>986.2661908794335</v>
+        <v>986.2661908794333</v>
       </c>
       <c r="M4" t="n">
         <v>909.5022093095037</v>
       </c>
       <c r="N4" t="n">
+        <v>909.5022093095037</v>
+      </c>
+      <c r="O4" t="n">
         <v>909.5022093095039</v>
       </c>
-      <c r="O4" t="n">
-        <v>909.5022093095034</v>
-      </c>
       <c r="P4" t="n">
-        <v>909.502209309504</v>
+        <v>909.5022093095039</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57397283805942</v>
+        <v>57.57397283805926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.194593646483607</v>
+        <v>3.194593646483803</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.75412653367948</v>
+        <v>59.7541265336794</v>
       </c>
       <c r="M2" t="n">
-        <v>19.8603773117722</v>
+        <v>19.86037731177218</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.194593646483639</v>
+        <v>3.194593646483789</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>894.1994717943693</v>
+        <v>894.1994717943687</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>817.4354902244395</v>
+        <v>817.435490224439</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57397283805942</v>
+        <v>57.57397283805926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.194593646483607</v>
+        <v>3.194593646483803</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>894.1994717943693</v>
+        <v>894.1994717943687</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>5.892868265313084</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>152.3352506923594</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>220.6315523179333</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>176.4969998277444</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>140.3775415572698</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27555,7 +27555,7 @@
         <v>155.3511267657281</v>
       </c>
       <c r="I4" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R5" t="n">
-        <v>142.9930721994382</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>202.9636484969459</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>139.7593826303423</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>130.4674714214992</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>200.3728660142628</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.4969998277444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.82706289750146</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>350.0047998482752</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.9454402670488</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27935,19 +27935,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I9" t="n">
         <v>74.09389533628003</v>
@@ -27980,7 +27980,7 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>158.9511112267647</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9553114432382</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28050,19 +28050,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>217.1883789600571</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="C11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="D11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="E11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="F11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="G11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="H11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="I11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="T11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="U11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="V11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="W11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="X11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="C13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="D13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="E13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="F13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="G13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="H13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="I13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="J13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="K13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="L13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="M13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="N13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="O13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="P13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="R13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="S13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="T13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="U13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="V13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="W13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="X13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="C14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="D14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="E14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="F14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="G14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="H14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="I14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="T14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="U14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="V14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="W14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="X14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="C16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="D16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="E16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="F16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="G16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="H16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="I16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="J16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="K16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="L16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="M16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="N16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="O16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="P16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="R16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="S16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="T16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="U16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="V16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="W16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="X16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.23512465387593</v>
+        <v>25.23512465387613</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="C17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="D17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="E17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="F17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="G17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="T17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="U17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="V17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="W17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="X17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="C19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="D19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="E19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="F19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="G19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="K19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193472</v>
       </c>
       <c r="L19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="M19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="N19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="O19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="P19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.8090974919354</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="R19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="S19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="T19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="U19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="V19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="W19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="X19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="C20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="D20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="E20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="F20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="G20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="T20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="U20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="V20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="W20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="X20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="C22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="D22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="E22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="F22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="G22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J22" t="n">
-        <v>82.80909749193526</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="K22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="L22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="M22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="N22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193461</v>
       </c>
       <c r="O22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="P22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="R22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="S22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="T22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="U22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="V22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="W22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="X22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.80909749193535</v>
+        <v>82.80909749193539</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="C23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="D23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="E23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="F23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="G23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="T23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="U23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="V23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="W23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="X23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="C25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="D25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="E25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="F25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="G25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="H25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="I25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="J25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="K25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="L25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="M25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="N25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="O25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="P25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="R25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="S25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="T25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="U25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="V25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="W25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="X25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.80909749193538</v>
+        <v>82.80909749193539</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="C26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="D26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="E26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="F26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="G26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="H26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="I26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="T26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="U26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="V26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="W26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="X26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="C28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="D28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="E28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="F28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="G28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="H28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="I28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="J28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="K28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="L28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="M28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="N28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="O28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="P28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="R28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="S28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="T28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="U28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="V28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="W28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="X28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.76856648454305</v>
+        <v>60.76856648454306</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="C29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="D29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="E29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="F29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="G29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="H29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="I29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="T29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="U29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="V29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="W29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="X29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="Y29" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="C31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="D31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="E31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="F31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="G31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="H31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="I31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="K31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="L31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="M31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="N31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="O31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="P31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="R31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="S31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="T31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="U31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="V31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="W31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="X31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.76856648454311</v>
+        <v>60.76856648454305</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="C32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="D32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="E32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="F32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="G32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="H32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="I32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="T32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="U32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="V32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="W32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="X32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="Y32" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="C34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="D34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="E34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="F34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="G34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="H34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="I34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="J34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="K34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="L34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="M34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="N34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="O34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="P34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="R34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="S34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="T34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="U34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="V34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="W34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="X34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.94872018016316</v>
+        <v>62.94872018016319</v>
       </c>
     </row>
     <row r="35">
@@ -30402,7 +30402,7 @@
         <v>82.80909749193536</v>
       </c>
       <c r="J40" t="n">
-        <v>82.80909749193536</v>
+        <v>82.80909749193522</v>
       </c>
       <c r="K40" t="n">
         <v>82.80909749193536</v>
@@ -30414,7 +30414,7 @@
         <v>82.80909749193536</v>
       </c>
       <c r="N40" t="n">
-        <v>82.80909749193506</v>
+        <v>82.80909749193536</v>
       </c>
       <c r="O40" t="n">
         <v>82.80909749193536</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="C41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="D41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="E41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="F41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="G41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="H41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="I41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="T41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="U41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="V41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="W41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="X41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="C43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="D43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="E43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="F43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="G43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="H43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="I43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="J43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="K43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="L43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="M43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="N43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="O43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="P43" t="n">
-        <v>82.80909749193452</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="R43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="S43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="T43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="U43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="V43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="W43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="X43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.80909749193539</v>
+        <v>82.80909749193535</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="C44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="D44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="E44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="F44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="G44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="H44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="I44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="T44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="U44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="V44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="W44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="X44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="C46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="D46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="E46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="F46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="G46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="H46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="I46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="J46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="K46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="L46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="M46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="N46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="O46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="P46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="R46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="S46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="T46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="U46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="V46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="W46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="X46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.80909749193533</v>
+        <v>82.80909749193535</v>
       </c>
     </row>
   </sheetData>
@@ -34123,31 +34123,31 @@
         <v>2.614798687457717</v>
       </c>
       <c r="H41" t="n">
-        <v>26.77880705792635</v>
+        <v>26.77880705792636</v>
       </c>
       <c r="I41" t="n">
-        <v>100.8070263982137</v>
+        <v>100.8070263982138</v>
       </c>
       <c r="J41" t="n">
-        <v>221.9277700996146</v>
+        <v>221.9277700996147</v>
       </c>
       <c r="K41" t="n">
-        <v>332.6121985396998</v>
+        <v>332.6121985396999</v>
       </c>
       <c r="L41" t="n">
-        <v>412.634843870984</v>
+        <v>412.6348438709841</v>
       </c>
       <c r="M41" t="n">
-        <v>459.1357700290602</v>
+        <v>459.1357700290603</v>
       </c>
       <c r="N41" t="n">
-        <v>466.5650667997995</v>
+        <v>466.5650667997996</v>
       </c>
       <c r="O41" t="n">
-        <v>440.5641623513918</v>
+        <v>440.5641623513919</v>
       </c>
       <c r="P41" t="n">
-        <v>376.0113197547793</v>
+        <v>376.0113197547794</v>
       </c>
       <c r="Q41" t="n">
         <v>282.3688417601998</v>
@@ -34156,13 +34156,13 @@
         <v>164.251848051016</v>
       </c>
       <c r="S41" t="n">
-        <v>59.58472509044279</v>
+        <v>59.5847250904428</v>
       </c>
       <c r="T41" t="n">
         <v>11.44628125434616</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2091838949966173</v>
+        <v>0.2091838949966174</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>13.51178720809667</v>
       </c>
       <c r="I42" t="n">
-        <v>48.16872369825562</v>
+        <v>48.16872369825563</v>
       </c>
       <c r="J42" t="n">
         <v>132.1786595139012</v>
@@ -34214,16 +34214,16 @@
         <v>225.914382216392</v>
       </c>
       <c r="L42" t="n">
-        <v>303.7697664563241</v>
+        <v>303.7697664563242</v>
       </c>
       <c r="M42" t="n">
-        <v>354.4849895602836</v>
+        <v>354.4849895602837</v>
       </c>
       <c r="N42" t="n">
         <v>363.8671524309376</v>
       </c>
       <c r="O42" t="n">
-        <v>332.8673572559582</v>
+        <v>332.8673572559583</v>
       </c>
       <c r="P42" t="n">
         <v>267.1554003025036</v>
@@ -34232,16 +34232,16 @@
         <v>178.586310129176</v>
       </c>
       <c r="R42" t="n">
-        <v>86.86324237866327</v>
+        <v>86.86324237866329</v>
       </c>
       <c r="S42" t="n">
-        <v>25.98656622447291</v>
+        <v>25.98656622447292</v>
       </c>
       <c r="T42" t="n">
         <v>5.639115551426356</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09204214719411904</v>
+        <v>0.09204214719411906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,40 +34284,40 @@
         <v>10.4282243883278</v>
       </c>
       <c r="I43" t="n">
-        <v>35.2725626549983</v>
+        <v>35.27256265499831</v>
       </c>
       <c r="J43" t="n">
-        <v>82.92464321883969</v>
+        <v>82.92464321883971</v>
       </c>
       <c r="K43" t="n">
         <v>136.2706622523815</v>
       </c>
       <c r="L43" t="n">
-        <v>174.379531336107</v>
+        <v>174.3795313361071</v>
       </c>
       <c r="M43" t="n">
-        <v>183.8587659794847</v>
+        <v>183.8587659794848</v>
       </c>
       <c r="N43" t="n">
         <v>179.4870154690407</v>
       </c>
       <c r="O43" t="n">
-        <v>165.7853096009412</v>
+        <v>165.7853096009413</v>
       </c>
       <c r="P43" t="n">
         <v>141.8579726608516</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.21510719927124</v>
+        <v>98.21510719927126</v>
       </c>
       <c r="R43" t="n">
-        <v>52.73823908452887</v>
+        <v>52.73823908452888</v>
       </c>
       <c r="S43" t="n">
         <v>20.44059933785723</v>
       </c>
       <c r="T43" t="n">
-        <v>5.011518877826237</v>
+        <v>5.011518877826238</v>
       </c>
       <c r="U43" t="n">
         <v>0.06397683673820738</v>
@@ -34360,31 +34360,31 @@
         <v>2.614798687457717</v>
       </c>
       <c r="H44" t="n">
-        <v>26.77880705792636</v>
+        <v>26.77880705792635</v>
       </c>
       <c r="I44" t="n">
-        <v>100.8070263982138</v>
+        <v>100.8070263982137</v>
       </c>
       <c r="J44" t="n">
-        <v>221.9277700996147</v>
+        <v>221.9277700996146</v>
       </c>
       <c r="K44" t="n">
-        <v>332.6121985396999</v>
+        <v>332.6121985396998</v>
       </c>
       <c r="L44" t="n">
-        <v>412.6348438709841</v>
+        <v>412.634843870984</v>
       </c>
       <c r="M44" t="n">
-        <v>459.1357700290603</v>
+        <v>459.1357700290602</v>
       </c>
       <c r="N44" t="n">
-        <v>466.5650667997996</v>
+        <v>466.5650667997995</v>
       </c>
       <c r="O44" t="n">
-        <v>440.5641623513919</v>
+        <v>440.5641623513918</v>
       </c>
       <c r="P44" t="n">
-        <v>376.0113197547794</v>
+        <v>376.0113197547793</v>
       </c>
       <c r="Q44" t="n">
         <v>282.3688417601998</v>
@@ -34393,13 +34393,13 @@
         <v>164.251848051016</v>
       </c>
       <c r="S44" t="n">
-        <v>59.5847250904428</v>
+        <v>59.58472509044279</v>
       </c>
       <c r="T44" t="n">
         <v>11.44628125434616</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2091838949966174</v>
+        <v>0.2091838949966173</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>13.51178720809667</v>
       </c>
       <c r="I45" t="n">
-        <v>48.16872369825563</v>
+        <v>48.16872369825562</v>
       </c>
       <c r="J45" t="n">
         <v>132.1786595139012</v>
@@ -34451,16 +34451,16 @@
         <v>225.914382216392</v>
       </c>
       <c r="L45" t="n">
-        <v>303.7697664563242</v>
+        <v>303.7697664563241</v>
       </c>
       <c r="M45" t="n">
-        <v>354.4849895602837</v>
+        <v>354.4849895602836</v>
       </c>
       <c r="N45" t="n">
         <v>363.8671524309376</v>
       </c>
       <c r="O45" t="n">
-        <v>332.8673572559583</v>
+        <v>332.8673572559582</v>
       </c>
       <c r="P45" t="n">
         <v>267.1554003025036</v>
@@ -34469,16 +34469,16 @@
         <v>178.586310129176</v>
       </c>
       <c r="R45" t="n">
-        <v>86.86324237866329</v>
+        <v>86.86324237866327</v>
       </c>
       <c r="S45" t="n">
-        <v>25.98656622447292</v>
+        <v>25.98656622447291</v>
       </c>
       <c r="T45" t="n">
         <v>5.639115551426356</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09204214719411906</v>
+        <v>0.09204214719411904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,40 +34521,40 @@
         <v>10.4282243883278</v>
       </c>
       <c r="I46" t="n">
-        <v>35.27256265499831</v>
+        <v>35.2725626549983</v>
       </c>
       <c r="J46" t="n">
-        <v>82.92464321883971</v>
+        <v>82.92464321883969</v>
       </c>
       <c r="K46" t="n">
         <v>136.2706622523815</v>
       </c>
       <c r="L46" t="n">
-        <v>174.3795313361071</v>
+        <v>174.379531336107</v>
       </c>
       <c r="M46" t="n">
-        <v>183.8587659794848</v>
+        <v>183.8587659794847</v>
       </c>
       <c r="N46" t="n">
         <v>179.4870154690407</v>
       </c>
       <c r="O46" t="n">
-        <v>165.7853096009413</v>
+        <v>165.7853096009412</v>
       </c>
       <c r="P46" t="n">
         <v>141.8579726608516</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.21510719927126</v>
+        <v>98.21510719927124</v>
       </c>
       <c r="R46" t="n">
-        <v>52.73823908452888</v>
+        <v>52.73823908452887</v>
       </c>
       <c r="S46" t="n">
         <v>20.44059933785723</v>
       </c>
       <c r="T46" t="n">
-        <v>5.011518877826238</v>
+        <v>5.011518877826237</v>
       </c>
       <c r="U46" t="n">
         <v>0.06397683673820738</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>6.876045741711437</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34866,10 +34866,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35106,7 +35106,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>14.68444509028111</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
@@ -35188,7 +35188,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>14.68444509028111</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>15.30273751513505</v>
@@ -35340,10 +35340,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>40.88186557292832</v>
+        <v>209.9784807450021</v>
       </c>
       <c r="K11" t="n">
         <v>436.667760065884</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5296434514472</v>
+        <v>257.2089974858466</v>
       </c>
       <c r="M11" t="n">
         <v>678.3030702946199</v>
@@ -35428,7 +35428,7 @@
         <v>466.5770321709924</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.1541117521306</v>
+        <v>272.378142545655</v>
       </c>
       <c r="R11" t="n">
         <v>14.38273010986629</v>
@@ -35492,13 +35492,13 @@
         <v>352.5381802546116</v>
       </c>
       <c r="L12" t="n">
-        <v>165.21538667645</v>
+        <v>378.8935880292615</v>
       </c>
       <c r="M12" t="n">
         <v>212.3509556382653</v>
       </c>
       <c r="N12" t="n">
-        <v>446.2036417004156</v>
+        <v>232.5254403476042</v>
       </c>
       <c r="O12" t="n">
         <v>584.1334320882434</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.80058775604284</v>
+        <v>14.80058775604306</v>
       </c>
       <c r="K13" t="n">
-        <v>139.2362950803746</v>
+        <v>139.2362950803748</v>
       </c>
       <c r="L13" t="n">
-        <v>227.2046812502991</v>
+        <v>227.2046812502993</v>
       </c>
       <c r="M13" t="n">
-        <v>248.6777675952013</v>
+        <v>248.6777675952015</v>
       </c>
       <c r="N13" t="n">
-        <v>248.8543125021452</v>
+        <v>248.8543125021454</v>
       </c>
       <c r="O13" t="n">
-        <v>215.6055621688569</v>
+        <v>215.6055621688571</v>
       </c>
       <c r="P13" t="n">
-        <v>164.371656579621</v>
+        <v>164.3716565796212</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.28818860145279</v>
+        <v>37.28818860145299</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>209.9784807450021</v>
       </c>
       <c r="K14" t="n">
-        <v>113.7298442101522</v>
+        <v>436.667760065884</v>
       </c>
       <c r="L14" t="n">
         <v>594.5296434514472</v>
@@ -35659,7 +35659,7 @@
         <v>674.4989276151928</v>
       </c>
       <c r="O14" t="n">
-        <v>591.2661321924504</v>
+        <v>253.9454862268499</v>
       </c>
       <c r="P14" t="n">
         <v>466.5770321709924</v>
@@ -35668,7 +35668,7 @@
         <v>272.378142545655</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>14.38273010986629</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>131.4320681876433</v>
+        <v>5.341032847234487</v>
       </c>
       <c r="K15" t="n">
         <v>352.5381802546116</v>
       </c>
       <c r="L15" t="n">
-        <v>165.21538667645</v>
+        <v>536.0557319799091</v>
       </c>
       <c r="M15" t="n">
         <v>212.3509556382653</v>
       </c>
       <c r="N15" t="n">
-        <v>446.2036417004156</v>
+        <v>519.9171003773024</v>
       </c>
       <c r="O15" t="n">
         <v>584.1334320882434</v>
       </c>
       <c r="P15" t="n">
-        <v>451.6437615281105</v>
+        <v>133.1809928881733</v>
       </c>
       <c r="Q15" t="n">
         <v>248.6818237790036</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.80058775604284</v>
+        <v>14.80058775604304</v>
       </c>
       <c r="K16" t="n">
-        <v>139.2362950803746</v>
+        <v>139.2362950803748</v>
       </c>
       <c r="L16" t="n">
-        <v>227.2046812502991</v>
+        <v>227.2046812502993</v>
       </c>
       <c r="M16" t="n">
-        <v>248.6777675952013</v>
+        <v>248.6777675952015</v>
       </c>
       <c r="N16" t="n">
-        <v>248.8543125021452</v>
+        <v>248.8543125021454</v>
       </c>
       <c r="O16" t="n">
-        <v>215.6055621688569</v>
+        <v>215.605562168857</v>
       </c>
       <c r="P16" t="n">
-        <v>164.371656579621</v>
+        <v>164.3716565796212</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.28818860145279</v>
+        <v>37.28818860145299</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>209.9784807450021</v>
       </c>
       <c r="K17" t="n">
-        <v>113.7298442101522</v>
+        <v>436.667760065884</v>
       </c>
       <c r="L17" t="n">
         <v>594.5296434514472</v>
@@ -35893,7 +35893,7 @@
         <v>678.3030702946199</v>
       </c>
       <c r="N17" t="n">
-        <v>674.4989276151928</v>
+        <v>337.1782816495921</v>
       </c>
       <c r="O17" t="n">
         <v>591.2661321924504</v>
@@ -35905,7 +35905,7 @@
         <v>272.378142545655</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.38273010986629</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>536.0557319799091</v>
       </c>
       <c r="M18" t="n">
-        <v>678.0560193882652</v>
+        <v>212.3509556382653</v>
       </c>
       <c r="N18" t="n">
-        <v>232.5254403476042</v>
+        <v>469.2256156736861</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7289930275326</v>
+        <v>190.2711128115138</v>
       </c>
       <c r="P18" t="n">
-        <v>133.1809928881733</v>
+        <v>451.6437615281105</v>
       </c>
       <c r="Q18" t="n">
         <v>248.6818237790036</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.37456059410226</v>
+        <v>72.37456059410231</v>
       </c>
       <c r="K19" t="n">
-        <v>196.810267918434</v>
+        <v>196.8102679184334</v>
       </c>
       <c r="L19" t="n">
-        <v>284.7786540883585</v>
+        <v>284.7786540883586</v>
       </c>
       <c r="M19" t="n">
         <v>306.2517404332607</v>
       </c>
       <c r="N19" t="n">
-        <v>306.4282853402046</v>
+        <v>306.4282853402047</v>
       </c>
       <c r="O19" t="n">
-        <v>273.1795350069162</v>
+        <v>273.1795350069163</v>
       </c>
       <c r="P19" t="n">
-        <v>221.9456294176804</v>
+        <v>221.9456294176805</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.86216143951226</v>
+        <v>94.86216143951225</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>678.3030702946199</v>
       </c>
       <c r="N20" t="n">
-        <v>337.178281649593</v>
+        <v>337.1782816495921</v>
       </c>
       <c r="O20" t="n">
         <v>591.2661321924504</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.37456059410218</v>
+        <v>72.37456059410231</v>
       </c>
       <c r="K22" t="n">
-        <v>196.810267918434</v>
+        <v>196.8102679184341</v>
       </c>
       <c r="L22" t="n">
-        <v>284.7786540883585</v>
+        <v>284.7786540883586</v>
       </c>
       <c r="M22" t="n">
         <v>306.2517404332607</v>
       </c>
       <c r="N22" t="n">
-        <v>306.4282853402046</v>
+        <v>306.4282853402039</v>
       </c>
       <c r="O22" t="n">
-        <v>273.1795350069162</v>
+        <v>273.1795350069163</v>
       </c>
       <c r="P22" t="n">
-        <v>221.9456294176804</v>
+        <v>221.9456294176805</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.86216143951221</v>
+        <v>94.86216143951225</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>40.88186557292832</v>
+        <v>209.9784807450021</v>
       </c>
       <c r="K23" t="n">
         <v>436.667760065884</v>
@@ -36367,7 +36367,7 @@
         <v>678.3030702946199</v>
       </c>
       <c r="N23" t="n">
-        <v>674.4989276151928</v>
+        <v>337.1782816495921</v>
       </c>
       <c r="O23" t="n">
         <v>591.2661321924504</v>
@@ -36376,10 +36376,10 @@
         <v>466.5770321709924</v>
       </c>
       <c r="Q23" t="n">
-        <v>118.5368418619947</v>
+        <v>272.378142545655</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.38273010986629</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>131.4320681876433</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5381802546116</v>
+        <v>123.5332918306938</v>
       </c>
       <c r="L24" t="n">
-        <v>517.1281312918402</v>
+        <v>536.0557319799091</v>
       </c>
       <c r="M24" t="n">
         <v>678.0560193882652</v>
@@ -36455,7 +36455,7 @@
         <v>451.6437615281105</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.60453604315447</v>
+        <v>248.6818237790036</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.37456059410229</v>
+        <v>72.37456059410231</v>
       </c>
       <c r="K25" t="n">
         <v>196.8102679184341</v>
@@ -36525,7 +36525,7 @@
         <v>306.2517404332607</v>
       </c>
       <c r="N25" t="n">
-        <v>306.4282853402046</v>
+        <v>306.4282853402047</v>
       </c>
       <c r="O25" t="n">
         <v>273.1795350069163</v>
@@ -36534,7 +36534,7 @@
         <v>221.9456294176805</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.86216143951224</v>
+        <v>94.86216143951225</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>131.4320681876433</v>
+        <v>5.341032847234487</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5381802546116</v>
+        <v>88.07294324203298</v>
       </c>
       <c r="L30" t="n">
         <v>536.0557319799091</v>
       </c>
       <c r="M30" t="n">
-        <v>449.0511309643476</v>
+        <v>212.3509556382653</v>
       </c>
       <c r="N30" t="n">
-        <v>232.5254403476042</v>
+        <v>675.9968564857932</v>
       </c>
       <c r="O30" t="n">
-        <v>190.2711128115138</v>
+        <v>584.1334320882434</v>
       </c>
       <c r="P30" t="n">
         <v>451.6437615281105</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.6818237790036</v>
+        <v>38.60453604315447</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.33402958671002</v>
+        <v>50.33402958670997</v>
       </c>
       <c r="K31" t="n">
-        <v>174.7697369110418</v>
+        <v>174.7697369110417</v>
       </c>
       <c r="L31" t="n">
         <v>262.7381230809663</v>
@@ -36999,16 +36999,16 @@
         <v>284.2112094258684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.3877543328124</v>
+        <v>284.3877543328123</v>
       </c>
       <c r="O31" t="n">
         <v>251.139003999524</v>
       </c>
       <c r="P31" t="n">
-        <v>199.9050984102882</v>
+        <v>199.9050984102881</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.82163043211997</v>
+        <v>72.82163043211992</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.9784807450021</v>
+        <v>190.99491615606</v>
       </c>
       <c r="K32" t="n">
         <v>436.667760065884</v>
       </c>
       <c r="L32" t="n">
-        <v>561.1633487526392</v>
+        <v>594.5296434514472</v>
       </c>
       <c r="M32" t="n">
         <v>678.3030702946199</v>
@@ -37090,7 +37090,7 @@
         <v>272.378142545655</v>
       </c>
       <c r="R32" t="n">
-        <v>14.38273010986629</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>352.5381802546116</v>
       </c>
       <c r="L33" t="n">
-        <v>536.0557319799091</v>
+        <v>165.21538667645</v>
       </c>
       <c r="M33" t="n">
-        <v>449.0511309643476</v>
+        <v>426.0291569910767</v>
       </c>
       <c r="N33" t="n">
         <v>232.5254403476042</v>
       </c>
       <c r="O33" t="n">
-        <v>190.2711128115138</v>
+        <v>584.1334320882434</v>
       </c>
       <c r="P33" t="n">
         <v>451.6437615281105</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.51418328233008</v>
+        <v>52.5141832823301</v>
       </c>
       <c r="K34" t="n">
-        <v>176.9498906066618</v>
+        <v>176.9498906066619</v>
       </c>
       <c r="L34" t="n">
         <v>264.9182767765864</v>
@@ -37236,16 +37236,16 @@
         <v>286.3913631214885</v>
       </c>
       <c r="N34" t="n">
-        <v>286.5679080284324</v>
+        <v>286.5679080284325</v>
       </c>
       <c r="O34" t="n">
         <v>253.3191576951441</v>
       </c>
       <c r="P34" t="n">
-        <v>202.0852521059082</v>
+        <v>202.0852521059083</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.00178412774002</v>
+        <v>75.00178412774005</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>40.88186557292832</v>
+        <v>209.9784807450021</v>
       </c>
       <c r="K35" t="n">
         <v>436.667760065884</v>
@@ -37318,16 +37318,16 @@
         <v>674.4989276151928</v>
       </c>
       <c r="O35" t="n">
-        <v>591.2661321924504</v>
+        <v>466.2604768867538</v>
       </c>
       <c r="P35" t="n">
         <v>466.5770321709924</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.5368418619942</v>
+        <v>60.06315188575027</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>14.38273010986629</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>131.4320681876433</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5381802546116</v>
+        <v>88.07294324203298</v>
       </c>
       <c r="L36" t="n">
         <v>536.0557319799091</v>
       </c>
       <c r="M36" t="n">
-        <v>212.3509556382653</v>
+        <v>638.1168173401333</v>
       </c>
       <c r="N36" t="n">
         <v>232.5254403476042</v>
       </c>
       <c r="O36" t="n">
-        <v>426.9712881375956</v>
+        <v>584.1334320882434</v>
       </c>
       <c r="P36" t="n">
-        <v>451.6437615281105</v>
+        <v>133.1809928881733</v>
       </c>
       <c r="Q36" t="n">
         <v>248.6818237790036</v>
@@ -37549,10 +37549,10 @@
         <v>594.5296434514472</v>
       </c>
       <c r="M38" t="n">
-        <v>340.9824243290203</v>
+        <v>678.3030702946199</v>
       </c>
       <c r="N38" t="n">
-        <v>674.4989276151928</v>
+        <v>337.1782816495921</v>
       </c>
       <c r="O38" t="n">
         <v>591.2661321924504</v>
@@ -37628,10 +37628,10 @@
         <v>536.0557319799091</v>
       </c>
       <c r="M39" t="n">
-        <v>449.0511309643472</v>
+        <v>212.3509556382653</v>
       </c>
       <c r="N39" t="n">
-        <v>232.5254403476042</v>
+        <v>469.2256156736861</v>
       </c>
       <c r="O39" t="n">
         <v>190.2711128115138</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.37456059410228</v>
+        <v>72.37456059410214</v>
       </c>
       <c r="K40" t="n">
         <v>196.810267918434</v>
@@ -37710,7 +37710,7 @@
         <v>306.2517404332607</v>
       </c>
       <c r="N40" t="n">
-        <v>306.4282853402044</v>
+        <v>306.4282853402046</v>
       </c>
       <c r="O40" t="n">
         <v>273.1795350069163</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>40.88186557292832</v>
+        <v>209.9784807450021</v>
       </c>
       <c r="K41" t="n">
-        <v>436.667760065884</v>
+        <v>436.6677600658841</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5296434514472</v>
+        <v>594.5296434514473</v>
       </c>
       <c r="M41" t="n">
-        <v>678.3030702946199</v>
+        <v>340.9824243290191</v>
       </c>
       <c r="N41" t="n">
         <v>674.4989276151928</v>
       </c>
       <c r="O41" t="n">
-        <v>591.2661321924504</v>
+        <v>591.2661321924505</v>
       </c>
       <c r="P41" t="n">
-        <v>466.5770321709924</v>
+        <v>466.5770321709925</v>
       </c>
       <c r="Q41" t="n">
-        <v>118.5368418619933</v>
+        <v>272.378142545655</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.38273010986632</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>131.4320681876433</v>
+        <v>131.4320681876434</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5381802546116</v>
+        <v>88.07294324203301</v>
       </c>
       <c r="L42" t="n">
-        <v>536.0557319799091</v>
+        <v>302.2509939608652</v>
       </c>
       <c r="M42" t="n">
-        <v>212.3509556382653</v>
+        <v>678.0560193882652</v>
       </c>
       <c r="N42" t="n">
-        <v>232.5254403476042</v>
+        <v>711.8678146911578</v>
       </c>
       <c r="O42" t="n">
-        <v>426.9712881375959</v>
+        <v>190.2711128115138</v>
       </c>
       <c r="P42" t="n">
         <v>451.6437615281105</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.6818237790036</v>
+        <v>38.6045360431545</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.37456059410231</v>
+        <v>72.37456059410228</v>
       </c>
       <c r="K43" t="n">
-        <v>196.8102679184341</v>
+        <v>196.810267918434</v>
       </c>
       <c r="L43" t="n">
         <v>284.7786540883586</v>
@@ -37947,16 +37947,16 @@
         <v>306.2517404332607</v>
       </c>
       <c r="N43" t="n">
-        <v>306.4282853402047</v>
+        <v>306.4282853402046</v>
       </c>
       <c r="O43" t="n">
         <v>273.1795350069163</v>
       </c>
       <c r="P43" t="n">
-        <v>221.9456294176796</v>
+        <v>221.9456294176805</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.86216143951225</v>
+        <v>94.86216143951222</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>209.9784807450021</v>
+        <v>40.88186557292832</v>
       </c>
       <c r="K44" t="n">
-        <v>436.6677600658841</v>
+        <v>436.667760065884</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5296434514473</v>
+        <v>594.5296434514472</v>
       </c>
       <c r="M44" t="n">
-        <v>678.3030702946201</v>
+        <v>524.4617696109601</v>
       </c>
       <c r="N44" t="n">
         <v>674.4989276151928</v>
       </c>
       <c r="O44" t="n">
-        <v>253.9454862268508</v>
+        <v>591.2661321924504</v>
       </c>
       <c r="P44" t="n">
-        <v>466.5770321709925</v>
+        <v>466.5770321709924</v>
       </c>
       <c r="Q44" t="n">
         <v>272.378142545655</v>
       </c>
       <c r="R44" t="n">
-        <v>14.38273010986632</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>131.4320681876434</v>
+        <v>131.4320681876433</v>
       </c>
       <c r="K45" t="n">
         <v>352.5381802546116</v>
       </c>
       <c r="L45" t="n">
-        <v>536.0557319799092</v>
+        <v>293.4135329624377</v>
       </c>
       <c r="M45" t="n">
-        <v>449.051130964347</v>
+        <v>212.3509556382653</v>
       </c>
       <c r="N45" t="n">
-        <v>232.5254403476043</v>
+        <v>711.8678146911577</v>
       </c>
       <c r="O45" t="n">
         <v>190.2711128115138</v>
@@ -38178,7 +38178,7 @@
         <v>196.810267918434</v>
       </c>
       <c r="L46" t="n">
-        <v>284.7786540883586</v>
+        <v>284.7786540883585</v>
       </c>
       <c r="M46" t="n">
         <v>306.2517404332607</v>
@@ -38187,7 +38187,7 @@
         <v>306.4282853402046</v>
       </c>
       <c r="O46" t="n">
-        <v>273.1795350069163</v>
+        <v>273.1795350069162</v>
       </c>
       <c r="P46" t="n">
         <v>221.9456294176804</v>
